--- a/data/sum_trans_data_ar_ap_100.xlsx
+++ b/data/sum_trans_data_ar_ap_100.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,18 +503,18 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Case Type:
-- Administrative/Procedural Case
-Legal Issues:
+          <t>1. Case Number: 97/1108
+2. Case Type: Administrative
+3. Legal Issues:
 - Request for extension of time to file an appeal
-Summary of Facts:
-- Petitioner Aviv Marehiv sought extension of filing deadline
-- State of Israel is the respondent
-- Case was heard before Justice A. Epstein-Gabay
+4. Summary of Facts:
+- Aviv Marehiv filed a petition against the State of Israel
 - Petitioner represented by Advocate Eilon Oron
 - Respondent represented by Advocate Nava Ben-Or
-Court Decision:
-- Extension of deadline granted</t>
+5. Court Decision:
+- Extension of deadline granted
+6. Relevant Laws and Precedents:
+- Supreme Court procedural rules regarding time extensions for appeals</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -553,19 +553,22 @@
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Case Type:
-- Administrative/Family Law
+Case Number: HCJ 4477/00
+Case Type: Administrative/Family Law
 Legal Issues:
-- Determination of jurisdictional authority in marriage dissolution case
-- Application of special jurisdiction provisions for marriage dissolution
+- Determination of jurisdictional authority for marriage dissolution
+- Application of Special Cases law regarding marriage dissolution
 Summary of Facts:
-- Petitioners Ludmila Vorobiov and Grigory Vorobiov seek marriage dissolution
-- Case brought before Supreme Court for jurisdictional determination
-- Matter falls under Law on Jurisdiction over Matters of Dissolution of Marriage (Special Cases)
+- Petitioners are Ludmila Vorobiov and Grigory Vorobiov
+- Case concerns jurisdiction over marriage dissolution
+- Matter brought before Supreme Court President
+- Parties represented by legal counsel
+- Application made under Special Cases law
 Court Decision:
-- Family Court in Tel Aviv and Central Districts granted jurisdiction over the marriage dissolution
+Family Court in Tel Aviv and Central Districts granted jurisdiction over the marriage dissolution
 Relevant Laws and Precedents:
-- Law on Jurisdiction over Matters of Dissolution of Marriage (Special Cases), 5729-1969, Section 1(a)</t>
+- Law on Jurisdiction over Matters of Dissolution of Marriage (Special Cases), 5729-1969
+- Section 1(a) of the Law on Jurisdiction over Matters of Dissolution of Marriage</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -603,27 +606,29 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Case Type: Criminal Appeal
-Legal Issues:
-- Appeal against sentencing for indecent acts against a minor
-- Appropriateness of sentence length considering prior convictions
+          <t>1. Case Number: 1890/16
+2. Case Type: Criminal Appeal
+3. Legal Issues:
+- Sexual offense against a minor
+- Appropriateness of sentencing
+- Consideration of prior criminal record
 - Impact of missing victim impact statement
-- Weight given to rehabilitation considerations
-Summary of Facts:
-- Appellant committed indecent acts against a minor under 16
-- Appellant lured victim to a building under pretense of needing help
+- Weight of rehabilitation prospects
+4. Summary of Facts:
+- Appellant committed an indecent act on a minor under 16
+- Appellant lured victim by asking for help with a cart
 - Appellant forced sexual contact with the victim
-- Appellant had previous convictions for sexual offenses against minors
-- Lower court sentenced appellant to 5 years imprisonment, 2 years probation
-- Compensation of 25,000 shekels ordered to victim
+- Appellant had previous convictions for sexual offenses
+- Appellant was sentenced to 5 years imprisonment and 2 years probation
+- Court ordered compensation of 25,000 shekels to victim
 - Appellant confessed to the crime
 - No victim impact statement was submitted
-Court Decision:
-- Appeal dismissed
-- Original sentence upheld (5 years imprisonment, 2 years probation, 25,000 shekels compensation)
-Relevant Laws and Precedents:
-- Articles 348(b), 345(a)(1), 345(b)(1) of the Penal Law, 1977
-- Section 355(a) of the Penal Law (minimum punishment requirement)
+- Appellant expressed desire for rehabilitation
+5. Court Decision:
+Appeal dismissed, original sentence upheld
+6. Relevant Laws and Precedents:
+- Articles 348(b), 345(a)(1) and 345(b)(1) of the Penal Law, 1977
+- Section 355(a) of the Penal Law (minimum punishment provision)
 - APP 8021/13 Tothongi v. The State
 - APP 9816/09 Lisk v. The State
 - APP 1555/13 Ploani v. The State
@@ -666,27 +671,28 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Case Type: Criminal
+          <t>Case Number: T.P. 2328/01
+Case Type: Criminal
 Legal Issues:
 - Revocation of suspended sentence for subsequent drug offense
-- Interpretation of drug possession laws
-- Enforcement of monetary fine and imprisonment in lieu of fine
+- Interpretation of drug possession laws under Dangerous Drugs Ordinance
+- Applicability of suspended sentence conditions
 Summary of Facts:
-- Appellant was convicted of drug possession and attempted trafficking
-- Initially received suspended sentence for first offense
-- Later convicted for possession of 64.82kg cannabis
+- Appellant was initially convicted of drug possession for personal use
+- Received suspended prison sentence for first offense
+- Later arrested for possession of 64.82 kg cannabis
+- Attempted to transfer drugs on instruction from prison inmate
+- Subject to 12-month suspended sentence from previous conviction
 - Plea bargain offered two sentencing options based on suspended sentence enforcement
-- District Court activated suspended sentence, resulting in 32 months imprisonment
-- Court imposed NIS 2,500 fine with installment payment option
+- Failed to pay court-ordered fine of 2,500 NIS
 Court Decision:
-Supreme Court rejected the appeal, upholding:
-- Activation of suspended sentence
-- Original prison term of 32 months
-- Fine and imprisonment term in lieu of non-payment
+- Supreme Court upheld District Court's decision to revoke suspended sentence
+- Total imprisonment of 32 months imposed
+- Appeal rejected on all grounds
 Relevant Laws and Precedents:
-- Dangerous Drugs Ordinance (New Version), 1973, Section 7
+- Dangerous Drugs Ordinance (New Version), 1973, Sections 7 and 13
 - Penal Law, 1977, Section 25
-- APP 49/80 Amos Masilati v. State of Israel
+- Case APP 49/80 Amos Masilati v. State of Israel
 - State of Israel v. Av Gutman
 - Debt Collection Center Law, 1995, Section 5b(a)</t>
         </is>
@@ -726,31 +732,29 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Case Type: Civil - Family Court Appeal
-Legal Issues:
-- Judge disqualification request
-- Timeliness of appeal filing
-- Application of "rule of delivery" vs "rule of knowledge"
-- Fee and security deposit waiver request
-Summary of Facts:
-- Appellant filed for judge disqualification in Family Court
-- Family Court denied disqualification request
-- Appellant discovered decision through court information system
-- Appellant filed immediate request to halt proceedings
-- Appellant obtained full decision text through court clerk's office
-- Appeal was filed after receiving complete decision text
-- Appellant requested waiver of fees and security deposit
+          <t>1. Case Number: A3766/12
+2. Case Type: Civil (Family Court Appeal)
+3. Legal Issues:
+- Timeliness of appeal filing against judge disqualification request
+- Application of "rule of delivery" vs "rule of knowledge" in determining appeal deadlines
+- Request for fee waiver and security deposit exemption
+4. Summary of Facts:
+- Appellant filed appeal against denial of judge disqualification request
+- Appellant discovered court decision through information center
+- Appellant filed immediate request to halt proceedings before receiving full decision text
+- Full decision text was obtained by appellant's emissary later
+- Appellant claims appeal period should start from receipt of full decision text
+- Appellant requested fee waiver and security deposit exemption
 - Appellant is employed with three minor daughters
-- Appellant receives some financial support from parents
-Court Decision:
+5. Court Decision:
 - Appeal was filed on time under "rule of delivery" principle
 - Partial reduction of fees granted (500 NIS fee and 3,500 NIS security deposit required)
-- Appeal dismissal possible if payments not made within 14 days
-Relevant Laws and Precedents:
-- Rule 471g(a) of Rules of Civil Procedure, 5744-1984
+- Appeal may proceed if payments made within fourteen days
+6. Relevant Laws and Precedents:
 - RA'A 8467/06 Abu Okasa v. Beit HaBarzel Tanos Ltd.
 - Bash'a 1788/06 Klinger v. Zaks
-- "Rule of delivery" vs "rule of knowledge" doctrine in Israeli law</t>
+- Rule 471g(a) of Rules of Civil Procedure, 5744-1984
+- Rule 465 of the Rules of Civil Procedure</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -788,23 +792,24 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Case Type:
-Civil Appeals Court (Supreme Court)
-Legal Issues:
-- Distribution of attorney fees in compensation award
+          <t>1. Case Number: Appeal No. 8178/12
+2. Case Type: Civil Appeal
+3. Legal Issues:
+- Distribution of attorney fees among multiple attorneys
 - Accuracy and completeness of legal documentation (Pishtatas)
 - Joint and several liability implications
-Summary of Facts:
+- Treatment of debt and interest calculations
+4. Summary of Facts:
 - Attorney Yoav Mozar requested attorney fees be reallocated to Attorney Zvi Salant
-- Joint and several liability was imposed on Attorneys Penso and Salant
+- Joint and several liability exists between Attorneys Penso and Salant
 - A $750,000 debt was previously imposed by District Court
-- Pishtatas documentation contained incomplete information
-- Interest provisions in documents did not align with the court ruling
-Court Decision:
+- Incomplete Pishtatas documentation omitted key judgment elements
+- Interest provisions in documentation inconsistent with ruling
+5. Court Decision:
 Court rejected Attorney Mozar's position regarding fee reallocation and ordered a new judgment to be issued
-Relevant Laws and Precedents:
-- District Court's previous ruling on $750,000 debt
-- Principles of joint and several liability</t>
+6. Relevant Laws and Precedents:
+- District Court's prior ruling on $750,000 debt
+- Supreme Court's previous judgment on joint and several liability</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -842,26 +847,30 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Case Type: Criminal
-Legal Issues:
-- Appeal of sentencing for terrorism-related charges
-- Appropriateness of punishment considering the severity of crimes
+          <t>1. Case Number: Criminal Appeal No. 3015/09, Case No. 1118/06
+2. Case Type: Criminal
+3. Legal Issues:
+- Appropriateness of sentencing for terrorism-related offenses
 - Balance between deterrence and personal circumstances in sentencing
-Summary of Facts:
-- Defendant was convicted of conspiracy, attempted murder, weapons possession, and membership in a terrorist organization
-- Defendant stored explosive devices intended for use against military targets
-- Defendant carried a Kalashnikov rifle during the period of activities
-- Defendant refused to re-plant explosives when asked
-- Defendant agreed to but did not actually report military movements
-- Defendant had no prior criminal record
-- Defendant claimed to have protected Israeli soldiers while serving in Palestinian security forces
-Court Decision:
-- Appeal dismissed, original sentence upheld
-- Six years imprisonment plus twelve months probation maintained
-Relevant Laws and Precedents:
+- Consistency of sentencing with similar cases
+4. Summary of Facts:
+- Defendant Fa'ad Kadiach was convicted of multiple terrorism-related charges
+- Stored explosive devices at his brother's house for PFLP members
+- Participated in attempted attack against Israeli tanks
+- Carried a Kalashnikov rifle during the period of activities
+- Refused subsequent request to re-plant explosives
+- Agreed to but did not carry out surveillance of Israeli military forces
+- Had no prior criminal record
+- Previously served in Palestinian security forces
+5. Court Decision:
+- Appeal dismissed, original sentence upheld:
+  - Six years imprisonment
+  - Twelve months probation
+  - Credit for time served since detention
+6. Relevant Laws and Precedents:
 - Section 499(a)(1) of the Penal Law - Conspiracy
 - Section 301(1) of the Penal Law - Attempted Murder
-- Section 144(b) of the Penal Law - Possession of a Firearm
+- Section 144(b) of the Penal Law - Possession of Firearm
 - Section 3 of the Prevention of Terrorism Ordinance
 - CrimA 9097/05 State of Israel v. Varshelevsky
 - CrimA 1242/97 Greenberg v. State of Israel
@@ -903,21 +912,20 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1. Case Type:
-Criminal case (drug-related appeal)
-2. Legal Issues:
+          <t>1. Case Number: Appeal No. 4272/05
+2. Case Type: Criminal Appeal
+3. Legal Issues:
 - Appeal against severity of sentence for drug possession
-- Appropriateness of sentencing for repeat drug offenses
-3. Summary of Facts:
-- Appellant possessed 44 grams of heroin not for personal use
-- Appellant committed an additional drug-related offense
-- Offense was committed while under house arrest
-- Appellant had prior drug conviction
-- Original sentence was 30 months imprisonment plus 8 months probation
-4. Court Decision:
-Appeal dismissed; original sentence upheld (30 months imprisonment and 8 months probation)
-5. Relevant Laws and Precedents:
-Drug possession laws (specific statutes not mentioned in document)</t>
+- Appropriateness of punishment for repeat drug offenses
+4. Summary of Facts:
+- Appellant convicted of possessing 44 grams of heroin not for personal use
+- Appellant committed offense while under house arrest
+- Previous conviction for similar drug-related offense
+- Original sentence: 30 months imprisonment plus 8 months probation
+5. Court Decision:
+Appeal dismissed; original sentence upheld due to serious nature of offense and appellant's criminal history
+6. Relevant Laws and Precedents:
+- Drug possession laws (specific statutes not mentioned in document)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -955,28 +963,29 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Case Type: Civil Appeal (Property Law)
+          <t>Case Number: Appeal No. 10467/08
+Case Type: Civil Appeal
 Legal Issues:
-- Competition between equitable property rights and subsequent liens
-- Priority of rights between property purchaser and creditors
-- Impact of failure to register property interest on good faith determination
+- Competition between equitable property rights and subsequent creditor liens
+- Priority of unregistered property rights versus registered liens
+- Application of good faith principle in property registration
 Summary of Facts:
-- Appellant purchased land parcels through two transactions
-- Registered cautionary note for first transaction but not for second
+- Appellant purchased land parcels through two separate transactions
+- Appellant registered a cautionary note for the first transaction but not the second
 - Multiple creditors later placed liens on the properties
-- Dispute centers on priority rights between purchaser and lienholders
-- Parties agreed to proceed without evidentiary hearing
+- Dispute centers on priority rights between the unregistered purchase and subsequent liens
+- Parties agreed to proceed without evidentiary hearings
 Court Decision:
-- Appeal granted in favor of appellant
-- Court upheld purchaser's equitable rights over subsequent lienholders
-- Determined failure to register second transaction did not constitute bad faith
-- Ordered removal of liens and registration of appellant as property owner
+Appeal granted in favor of appellant, establishing:
+- Appellant's equitable property rights take precedence over subsequent liens
+- Failure to register second transaction did not constitute bad faith
+- Creditor's lien to be removed to allow appellant's registration as owner
 Relevant Laws and Precedents:
 - Aharonov v. Bank Leumi case (establishing priority of equitable rights)
 - Gadi case (addressing good faith requirements)
 - Land Registration Law, Section 8 (writing requirements)
-- Kushnir case (exceptions to priority rules)
-- Section 9 of Land Registry Law (competing transactions)</t>
+- Land Registration Law, Section 9 (priority rules)
+- Kushnir case (exceptions to priority rules)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1018,28 +1027,28 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Case Type: Civil Appeal (Personal Injury/Workers' Compensation)
-Legal Issues:
-- Calculation of compensation beyond National Insurance Institute benefits
-- Interpretation of settlement agreements in workplace injury cases
-- Validity of compromise judgments
-- Calculation of lost wages and benefits
-Summary of Facts:
-- Bus driver employed by Egged suffered work-related injury
+          <t>1. Case Number: Appeal No. 3330/11
+2. Case Type: Civil Appeal
+3. Legal Issues:
+- Compensation for work-related accident
+- Calculation of damages beyond National Insurance Institute benefits
+- Validity of settlement agreements
+- Interpretation of agreed-upon compensation terms
+4. Summary of Facts:
+- Bus driver employed by Egged was injured in a work-related accident
 - National Insurance Institute determined 33.5% permanent medical disability
-- Driver's bus license was revoked following accident
-- Employee continued working at Egged in administrative role at reduced hours
-- Pre-accident salary was 15,366 NIS gross monthly
-- Post-accident salary reduced to 11,000 NIS gross monthly
-- Parties agreed to additional compensation of 5,900 NIS monthly for lost overtime and bonuses
-- Lower court awarded 829,340 NIS in compensation
-Court Decision:
+- Driver's bus license was revoked following the accident
+- Employee continued working at Egged in administrative role at half-time
+- Original salary was 15,366 NIS gross, reduced to 11,000 NIS gross
+- Parties agreed to settlement terms including 5,900 NIS monthly compensation
+- Lower court awarded 829,340 NIS beyond NII benefits
+5. Court Decision:
 Appeal dismissed, upholding the lower court's award of 829,340 NIS beyond National Insurance Institute benefits
-Relevant Laws and Precedents:
+6. Relevant Laws and Precedents:
 - Section 6b of the Compensation Law
 - Section 4g of the Compensation Law
 - Section 81 of the Courts Law
-- Regulation 15 (National Insurance Institute regulations)</t>
+- Regulation 15 (regarding NII disability calculations)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1077,21 +1086,23 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1. Case Type:
-- Civil Appeals (Multiple consolidated tax appeals)
-2. Legal Issues:
-- Tax assessment disputes under the Taxation of Land Transactions Law
-- Land transaction taxation matters
-3. Summary of Facts:
-- Multiple appeals filed by Directors of Land Tax from Hadera and Tel Aviv
-- Cases involve various real estate and investment companies as respondents
-- Appeals challenge decisions made by Assessment Committees
-- Court heard consolidated appeals involving six different case numbers
-- Three-judge panel of Supreme Court of Israel heard the matters
-4. Court Decision:
+          <t>1. Case Number: 
+- Civil Appeals No. 2670/19, 2671/19, 2672/19, 7235/19, 7987/19, and 3904/20
+2. Case Type: 
+- Civil Appeals
+3. Legal Issues:
+- Taxation of Land Transactions under the Taxation of Land Transactions Law (Purchase and Sale), 5723-1963
+- Appeals against decisions of Assessment Committees
+4. Summary of Facts:
+- Multiple appeals filed by Director of Land Tax from Hadera and Tel Aviv
+- Multiple corporate respondents involved in real estate and investments
+- Cases heard by Supreme Court of Israel sitting as civil appeals court
+- Three-judge panel presiding
 - Court recommended withdrawal of appeals by appellant
-- Appellant given time to express position on withdrawal
-5. Relevant Laws:
+5. Court Decision:
+- Court recommended appellant withdraw appeals
+- Appellant given time to express position
+6. Relevant Laws and Precedents:
 - Taxation of Land Transactions Law (Purchase and Sale), 5723-1963</t>
         </is>
       </c>
@@ -1130,25 +1141,23 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Case Type:
-Criminal appeal case
-Legal Issues:
-- Appeal against severity of sentence for aggravated assault
-- Appropriateness of victim compensation amount
+          <t>1. Case Number: Appeal No. 3226/10
+2. Case Type: Criminal Appeal
+3. Legal Issues:
+- Appropriateness of sentencing for aggravated assault
 - Impact of delayed indictment on sentencing
-Summary of Facts:
-- Appellant was involved in a driving dispute with the victim
+- Validity of victim compensation amount
+4. Summary of Facts:
+- Appellant was driving with two passengers when a dispute arose with another driver
 - Initial altercation was broken up by bystanders
 - Appellant later blocked victim's path with two vehicles
-- Appellant stabbed victim multiple times with a knife
-- Victim sustained injuries to head, abdomen, back, and kidney
-- Appellant admitted to the facts and was convicted
-- Sentence included 12 months imprisonment, 12 months probation, and compensation
-- Appellant had no prior criminal record
-- Significant delay occurred between offense and indictment filing
-Court Decision:
+- When victim attempted to escape, appellant stabbed him multiple times
+- Victim sustained injuries to head, abdomen, back, and left kidney
+- Appellant admitted to the facts and was convicted of aggravated assault
+- Original sentence included 12 months imprisonment, 12 months probation, and 45,000 NIS compensation
+5. Court Decision:
 Appeal rejected, original sentence upheld
-Relevant Laws and Precedents:
+6. Relevant Laws and Precedents:
 - Section 329(a)(1) of the Penal Law (Aggravated Assault)</t>
         </is>
       </c>
@@ -1187,21 +1196,19 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Case Type:
-- Administrative/Procedural Case
+          <t>Case Number: 2129/11
+Case Type: Civil Appeal
 Legal Issues:
-- Non-compliance with procedural requirements
+- Procedural compliance with court requirements
 - Failure to deposit security bond
 - Inactivity in pursuing appeal
 Summary of Facts:
 - Appellants failed to deposit required security bond
 - Court issued notice to appellants regarding compliance
-- No response or action taken by appellants after notice
-- Case dismissed due to procedural non-compliance
+- Appellants did not respond to court notice
+- Case remained inactive
 Court Decision:
-- Appeal dismissed due to:
-  1. Lack of activity
-  2. Non-deposit of required security bond</t>
+Appeal dismissed due to procedural non-compliance and inactivity</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1239,27 +1246,27 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Case Type: Civil Case (Family Law/Divorce)
-Legal Issues:
-- Maintenance/alimony payments post-separation
-- Procedural matter regarding court hearing postponement
-- Validity of alimony denial based on relationship status and income
-Summary of Facts:
-- Appellant and Respondent were married and later divorced
+          <t>1. Case Number: CA 5592/98
+2. Case Type: Civil Case (Family Law/Divorce)
+3. Legal Issues:
+- Validity of court's denial of hearing postponement
+- Entitlement to maintenance/alimony payments
+- Impact of new relationships on alimony rights
+- Sufficiency of independent income as grounds for denying maintenance
+4. Summary of Facts:
+- Appellant and Respondent were previously married and divorced
 - Appellant filed claim for maintenance payments for specific period
-- Appellant's counsel failed to appear at hearing after postponement request
-- Court found evidence of Appellant's relationship with another person
+- Appellant's counsel failed to appear at hearing after postponement was denied
+- Court found evidence of Appellant's relationship with another man
 - Court determined Appellant had sufficient income for self-support
 - District Court dismissed the original maintenance claim
-- Appellant's counsel filed motion for postponement which was denied
-Court Decision:
+5. Court Decision:
 - Appeal denied
 - Appellant ordered to pay respondent's expenses of 4,000 NIS plus VAT
-- Court upheld lower court's decision denying maintenance payments
-Relevant Laws and Precedents:
+6. Relevant Laws and Precedents:
 - Family law provisions regarding maintenance/alimony
-- Procedural rules regarding court hearing postponements
-- Legal principles regarding maintenance denial based on new relationships</t>
+- Legal principles concerning judicial discretion in hearing postponements
+- Laws regarding impact of new relationships on maintenance rights</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1297,28 +1304,28 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1. Case Type:
-Civil appeal case
-2. Legal Issues:
-- Property rights transfer and registration
-- Jurisdictional authority over monetary claims
+          <t>1. Case Number: Appeal No. 4591/07
+2. Case Type: Civil Appeal
+3. Legal Issues:
+- Property rights registration transfer
+- Jurisdiction over monetary claims
 - Contractual obligations regarding property registration
-3. Summary of Facts:
-- Appeal concerns property rights registration dispute
+4. Summary of Facts:
+- Appeal against Nazareth District Court judgment (T.A. 739/06)
 - Respondent failed to appear at hearing despite summons
-- Property rights (6925/88051 parts) need transfer from State to respondent's late father
-- Subsequent transfer of purchased portion (1000/88051) to appellant required
-- Monetary claim of $20,000 was part of the dispute
-- Respondent failed to claim registered summons letter
-- Case was heard in absence of respondent
-4. Court Decision:
+- Case involves transfer of property rights (6925/88051 parts)
+- Dispute over transfer of purchased portion (1000/88051)
+- Monetary claim of $20,000 involved
+- Respondent absent from proceedings
+5. Court Decision:
 - Appeal partially accepted
-- Court ordered registration transfer from State to respondent's father, then partial transfer to appellant
-- Monetary relief claim rejected due to jurisdictional limitations
+- Respondent must transfer registration from State to late father's name
+- Subsequently transfer purchased portion to appellant
+- Monetary relief claim rejected
 - Respondent ordered to pay NIS 10,000 in attorney fees
-5. Relevant Laws and Precedents:
-- District Court jurisdictional authority over small claims
-- Property registration and transfer regulations</t>
+6. Relevant Laws and Precedents:
+- Small Claims Court jurisdictional limits
+- Property registration regulations</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1356,15 +1363,14 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Case Type:
-- Administrative Appeal Case
-Legal Issues:
-- Voluntary dismissal of appeals
-Summary of Facts:
-- Two appeals were filed (No. 6932/19 and No. 7079/19)
-- Parties jointly requested dismissal of both appeals
-- Request included provision for no costs to be awarded
-Court Decision:
+          <t>1. Case Number: 
+- Appeal No. 6932/19
+- Appeal No. 7079/19
+2. Case Type:
+- Civil Appeals
+3. Legal Issues:
+- Joint dismissal request by parties
+5. Court Decision:
 - Appeals dismissed without order for costs
 - Scheduled hearing canceled</t>
         </is>
@@ -1404,26 +1410,24 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Case Type:
-Administrative/Procedural Case (Court Registry Matter)
-Legal Issues:
-- Request for extension of time to file appeal
-- Fee exemption request for legal proceedings
-- Prisoner's right to file appeal
-Summary of Facts:
+          <t>1. Case Number: HCJ 5104/02
+2. Case Type: Administrative
+3. Legal Issues:
+- Request for leave to appeal
+- Request for exemption from court fees
+4. Summary of Facts:
 - Petitioner Roni Moshe Eliyahu filed against Israeli Police and Prison Service
-- Petitioner requested leave to appeal
-- Petitioner sought exemption from court fees
-- Prisoner's cash card shows substantial financial transactions
-- Case involves procedural matters before reaching substantive hearing
-Court Decision:
-- Petition for leave to appeal accepted by clerk
+- Petitioner is a prisoner with substantial funds in prison cash card
+- Petitioner requested exemption from court fees
+- Court granted permission to file appeal
+- Court denied fee exemption request
+5. Court Decision:
+- Petition for leave to appeal accepted
 - Fee exemption request denied
 - Petitioner must pay required fees within 30 days
-- Failure to pay will result in petition being struck off records
-Relevant Laws and Precedents:
-- Court Registry procedures regarding fee payments
-- Administrative regulations concerning prisoner petitions</t>
+- Case will be struck off if fees not paid within deadline
+6. Relevant Laws and Precedents:
+- Court fee regulations (implied)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1461,28 +1465,29 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Case Type:
-Civil (Family Law - Judicial Recusal Appeal)
-Legal Issues:
-- Judicial bias and grounds for recusal in custody proceedings
-- Standards for judicial disqualification
-- Procedural challenges in family court proceedings
-Summary of Facts:
-- Divorce case involving custody dispute over minor daughter
-- Custody was initially transferred from appellant to respondent by agreement
+          <t>1. Case Number: 7675/03 (Israeli Supreme Court)
+2. Case Type: Civil - Family Law Appeal
+3. Legal Issues:
+- Judicial disqualification/recusal
+- Alleged judicial bias in child custody proceedings
+- Proper grounds for judicial disqualification
+4. Summary of Facts:
+- Case involves custody dispute between divorced parents over minor daughter
+- Initial custody was transferred from appellant to respondent by agreement
 - Appellant later filed petition to regain custody
-- Multiple expert reports and evaluations were conducted
+- Court appointed amicus curiae and ordered parental capacity evaluation
+- Multiple expert reports produced conflicting findings
 - Appellant requested judge's recusal claiming bias
-- Judge denied recusal request
-- Appellant claimed judge's questions focused only on his weaknesses
-- Court appointed various experts and amicus curiae for the child
-Court Decision:
-Appeal dismissed; appellant ordered to pay respondent's expenses of NIS 5,000
-Relevant Laws and Precedents:
-- CA 220/99 H.R. Dolomite Company Ltd. v. Radimix Industries (Israel) Ltd.
-- CA 2668/96 Weinberg Doron &amp; Co., Law Office v. Rabbi Moshe Yehuda Leib Rabinowitz
-- Legal principle: expressing opinion in previous proceeding does not constitute substantial fear of bias
-- Legal principle: procedural decisions should be challenged through proper appeals, not through disqualification requests</t>
+- Judge denied recusal request, stating decisions were based on child's best interests
+- Appellant appealed the denial of recusal
+5. Court Decision:
+- Appeal dismissed
+- Appellant ordered to pay respondent's expenses of NIS 5,000
+6. Relevant Laws and Precedents:
+- CA 220/99 H.R. Dolomite Company Ltd. v. Radimix Industries
+- CA 2668/96 Weinberg Doron &amp; Co. v. Rabbi Moshe Yehuda Leib Rabinowitz
+- Legal principle: expressing opinions in previous proceedings does not constitute bias
+- Legal principle: procedural decisions cannot form basis for judicial disqualification</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1520,32 +1525,29 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1. Case Type:
-Criminal Appeal
-2. Legal Issues:
+          <t>1. Case Number: Appeal No. 4882/06
+2. Case Type: Criminal Appeal
+3. Legal Issues:
 - Endangering human life on a transportation route
 - Aggravated assault with intent to cause bodily harm
 - Obstructing police officers in their duties
-- Validity of police pursuit based on minor traffic violation
-- Credibility of witness testimonies
-3. Summary of Facts:
-- Defendant was driving without a seatbelt and refused to stop for police
-- Initiated a 20-minute high-speed chase through city streets
-- Drove recklessly through red lights and against traffic
+4. Summary of Facts:
+- Appellant was driving without a seatbelt and refused to stop for police
+- Led police on a 20-minute high-speed chase through city streets
+- Drove recklessly through red lights, against traffic, and onto medians
 - Attempted to drive towards a police officer who tried to stop him
 - Chase ended after police threw a rock at defendant's vehicle
-- Defendant claimed he fled due to fear and police threats with weapons
+- Defendant claimed he fled due to fear and alleged police threats
 - Passenger initially supported police version but changed testimony in court
-4. Court Decision:
+5. Court Decision:
 - Appeal rejected
-- Original conviction and sentence upheld
-- Three-year prison term maintained
+- Original sentence upheld: three-year imprisonment
 - Seven-month suspended sentence activated
-- Five-year driver's license disqualification confirmed
-5. Relevant Laws and Precedents:
-- Section 332(g) of the Penal Law - Endangering human life on transportation route
-- Section 329(a)(2) of the Penal Law - Aggravated assault
-- Section 275 of the Penal Law - Obstructing police officers
+- Five-year driver's license disqualification
+6. Relevant Laws and Precedents:
+- Section 332(g) of the Penal Law
+- Section 329(a)(2) of the Penal Law
+- Section 275 of the Penal Law
 - State of Israel v. Alkuraan (Case No. 217/04)
 - State of Israel v. Abu Lakian (Case No. 2100/06)</t>
         </is>
@@ -1585,21 +1587,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Case Type:
-Civil (Bankruptcy/Administrative)
-Legal Issues:
-- Court fee refund request in bankruptcy proceedings
-- Administrative matter regarding court fees
-Summary of Facts:
-- Multiple respondents including banks and bankruptcy trustees
-- Appellant Gabriel Ben Galim filed for fee refund
-- Case involves multiple corporate entities related to Ben-Galim
-- Multiple financial institutions are involved as respondents
-- Bankruptcy trustees are named as parties
-Court Decision:
-Court granted partial fee refund, with deduction as specified in Item 33 of the Court Fees Regulations, 2007
-Relevant Laws and Precedents:
-- Court Fees Regulations, 2007 (specifically Part 33, Item 33)</t>
+          <t>1. Case Number: 208/20
+2. Case Type: Civil (Bankruptcy-related)
+3. Legal Issues:
+- Court fee refund request
+- Bankruptcy proceedings
+4. Summary of Facts:
+- Multiple parties involved including banks and construction companies
+- Appellant: Gabriel Ben Galim
+- Multiple respondents including three banks and several companies
+- Two bankruptcy trustees involved
+- Case involves Ben-Galim group of companies
+- Fee refund request subject to Court Fees Regulations
+5. Court Decision:
+Partial fee refund granted to appellant, with deduction per item 33 of the Court Fees Regulations, 2007
+6. Relevant Laws and Precedents:
+- Court Fees Regulations, 2007 (specifically Part 33, item 33)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1637,30 +1640,31 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Case Type: Civil (Family Court Appeal)
-Legal Issues:
-- Judicial recusal/disqualification request
+          <t>1. Case Number: 1852/17
+2. Case Type: Civil Appeal (Family Law)
+3. Legal Issues:
+- Judge recusal/disqualification request
 - Unauthorized court recording
-- Family visitation rights
-- Procedural misconduct
-Summary of Facts:
-- Former spouses dispute visitation arrangements for two minor children
+- Visitation rights and parental arrangements
+- Judicial bias claims
+4. Summary of Facts:
+- Case involves divorced parents disputing visitation arrangements for minor children
 - Father filed two motions to disqualify the family court judge
-- Father secretly recorded a private court discussion between attorneys
+- Father secretly recorded a private court discussion between attorneys and judge
 - Father claimed bias and racist remarks during proceedings
-- Judge attempted to establish new visitation framework
-- Father refused to comply with ordered visitation and parental guidance
-- Father submitted unauthorized recordings as evidence in second recusal motion
-Court Decision:
-- Supreme Court dismissed the appeal
-- Imposed costs of 10,000 NIS on appellant
-- Upheld family court judge's refusal to recuse
-Relevant Laws and Precedents:
+- Father refused to comply with court-ordered visitation and treatment
+- Case originated from non-compliance with visitation arrangements
+5. Court Decision:
+- Appeal dismissed
+- Appellant ordered to pay 10,000 NIS in costs
+- Court rejected disqualification request
+- Court found no objective basis for judicial bias claims
+6. Relevant Laws and Precedents:
 - Section 70(b) of the Courts Law [Consolidated Version], 1984
 - Section 22(b) of the Rules of Professional Conduct for Attorneys, 1986
-- Case CA 125/17 Jordal Ltd. v. The Director of the VAT Administration
-- Case CA 1515/15 Yehuda v. Hogi
-- Case CA 475/17 S. Cohen Engineering Ltd. v. The Municipal Corporation</t>
+- CA 125/17 Jordal Ltd. v. The Director of the VAT Administration
+- CA 1515/15 Yehuda v. Hogi
+- CA 475/17 S. Cohen Engineering Ltd. v. The Municipal Corporation</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1698,21 +1702,19 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Case Type:
-Administrative Law Case
-Legal Issues:
+          <t>1. Case Number: 2083/98 (D)
+2. Case Type: Administrative
+3. Legal Issues:
 - Appeal against decisions of regional planning committees
-- Quarrying and development permissions
-Summary of Facts:
-- Two companies (Valley Quarry Ltd. and Brothers Roichman) filed an appeal
-- Case involves planning and development authorities
-- Appeal was directed against Northern District Planning Committee and its sub-committee
-- Public Works Department was involved as a respondent
-- Parties reached a consent agreement
-Court Decision:
-Appeal dismissed by consent without costs, with deposit returned to appellants
-Relevant Laws and Precedents:
-- Israeli Planning and Building Law (implied by involvement of planning committees)</t>
+4. Summary of Facts:
+- Appellants: Company for Valley Quarry Ltd. and Brothers Roichman Ltd.
+- Respondents: Northern District Planning Committee, "Nof HaGalil" Sub-Committee, and Public Works Department
+- Case involved planning and infrastructure matters
+- Appeal was withdrawn by consent
+5. Court Decision:
+- Appeal dismissed by consent
+- No costs ordered
+- Deposit returned to appellants</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1750,28 +1752,30 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Case Type:
-- Criminal (Traffic Court Case)
-Legal Issues:
-- Appeal against sentencing in a DUI case
-- Request to suspend implementation of driving-related penalties
-Summary of Facts:
-- Appellant was convicted of driving under influence of drugs/alcohol
-- Conviction was based on defendant's own admission
-- Initial sentencing included:
+          <t>1. Case Number: 7092/03 (Supreme Court), 1950/03 (District Court)
+2. Case Type: Criminal (Traffic Court)
+3. Legal Issues:
+- Appeal against sentencing
+- Request to suspend execution of driving-related penalties
+- Authority to delay implementation of non-prison penalties
+4. Summary of Facts:
+- Appellant admitted to driving under influence of drugs/alcohol
+- Initial conviction based on confession
+- Probation officer report was ordered
+- Original sentence included:
   * Six months imprisonment
   * Suspended sentence
   * Fine
   * 18-month driving license suspension
-  * Suspended disqualification from holding/possessing driver's license
+  * Suspended disqualification from holding driver's license
 - District Court postponed prison term execution pending appeal
-- Appellant sought suspension of remaining penalties
-Court Decision:
+- Appeal sought suspension of remaining penalties
+5. Court Decision:
 - Appeal denied
-- Original sentence upheld
-- Court emphasized need for deterrence in DUI cases
-Relevant Laws and Precedents:
-- Traffic laws related to driving under influence
+- Original penalties maintained
+- Court affirmed need for deterrence in DUI cases
+6. Relevant Laws and Precedents:
+- Traffic laws regarding driving under influence
 - Sentencing guidelines for DUI offenses</t>
         </is>
       </c>
@@ -1810,28 +1814,27 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Case Type: Civil Case (Property Law)
-Legal Issues:
+          <t>1. Case Number: Appeal No. 1161/10 (Supreme Court), Civil Case No. 838/05 (District Court)
+2. Case Type: Civil
+3. Legal Issues:
 - Land ownership dispute
 - Conflicting property transactions
-- Settlement of monetary claims
-Summary of Facts:
+4. Summary of Facts:
 - Appeal filed against Haifa District Court judgment
 - Multiple parties involved in land ownership dispute
-- Respondent Amad was found responsible for conflicting transactions
-- Settlement agreement reached between parties
-- Agreement includes monetary compensation and waiver of court costs
-- Respondent Hussein Ali Shalata agreed to pay NIS 10,000 to appellants
-- Hussein Ali Shalata waived NIS 25,000 in previously awarded costs
-- Amad agreed to reimburse Hussein Ali Shalata NIS 10,000
-- Amad to pay additional NIS 20,000 to appellants
-Court Decision:
+- Original District Court awarded costs of NIS 25,000 to Hussein Ali Shalata
+- Amad was found responsible for conflicting transactions
+- Parties reached settlement agreement during appeal
+- Settlement terms include:
+  * Hussein Ali Shalata to pay appellants NIS 10,000
+  * Hussein Ali Shalata to waive previously awarded costs
+  * Amad to reimburse Hussein Ali Shalata NIS 10,000
+  * Amad to pay appellants additional NIS 20,000
+5. Court Decision:
 Settlement agreement approved by Supreme Court with following terms:
-- Payment of NIS 10,000 from Hussein Ali Shalata to appellants
-- Waiver of NIS 25,000 court costs
-- Payment of NIS 30,000 total from Amad (NIS 10,000 reimbursement + NIS 20,000 to appellants)
-Relevant Laws and Precedents:
-- Property Law (specific statutes not mentioned in document)</t>
+- Financial compensation between parties
+- Waiver of previous court costs
+- Resolution of ownership dispute through monetary settlement</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1869,20 +1872,21 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Case Type: Civil
-Legal Issues:
-- Compliance with procedural requirements for appeal
-- Failure to deposit court-ordered guarantee
-- Non-response to court's request for clarification
-Summary of Facts:
-- Appellant (Eitan Ano/Oozim Restaurant) filed appeal against District Court decision
+          <t>1. Case Number: 2878/97-A
+2. Case Type: Civil
+3. Legal Issues:
+- Compliance with court-ordered financial guarantee
+- Procedural requirements under Civil Procedure rules
+- Appellant's failure to respond to court orders
+4. Summary of Facts:
+- Appellant (Eitan Ano/Oozim Restaurant) appealed against Tel Aviv District Court decision
 - Court ordered appellant to deposit NIS 20,000 guarantee
 - Appellant failed to deposit required guarantee
-- Court requested appellant to explain why appeal should not be dismissed
+- Court gave appellant opportunity to explain why appeal should not be dismissed
 - Appellant failed to respond to court's request for clarification
-Court Decision:
-Appeal dismissed due to appellant's non-compliance with procedural requirements
-Relevant Laws and Precedents:
+5. Court Decision:
+Appeal dismissed due to appellant's non-compliance with court orders
+6. Relevant Laws and Precedents:
 - Rule 431 of the Order of Civil Procedure, 5744-1984</t>
         </is>
       </c>
@@ -1921,28 +1925,26 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Case Type:
-Criminal Appeal
-Legal Issues:
+          <t>1. Case Number: Appeal No. 8265/12
+2. Case Type: Criminal Appeal
+3. Legal Issues:
 - Classification of manslaughter (voluntary vs. involuntary)
 - Appropriateness of sentence length
 - Appeal against conviction and sentence
-Summary of Facts:
-- Appellant was initially convicted of manslaughter by District Court
-- Original sentence was 48 months imprisonment
-- Both State and Appellant filed appeals
+4. Summary of Facts:
+- Original conviction for manslaughter by District Court
+- Initial sentence of 48 months imprisonment
+- Both State and defendant filed appeals
 - Court reclassified offense as involuntary manslaughter
-- Parties reached agreement to reduce prison term to 18 months
-- Decision considered victim's parents' position
-- Appellant's complex personal circumstances were factored
-- Prison Service to receive probation reports
-- Release on bail conditions remain until imprisonment begins
-Court Decision:
-- Appeal partially accepted
-- Sentence reduced from 48 to 18 months imprisonment
-- Original conviction modified from voluntary to involuntary manslaughter
-- Other components of original sentence remained unchanged
-Relevant Laws and Precedents:
+- Parties reached agreement on reduced sentence
+- Victim's parents' position was considered
+- Appellant has complex personal circumstances
+5. Court Decision:
+- Reduced prison sentence from 48 months to 18 months
+- Maintained other original sentence conditions
+- Required appellant to report to prison
+- Maintained bail conditions until prison reporting date
+6. Relevant Laws and Precedents:
 - Criminal law provisions regarding voluntary and involuntary manslaughter</t>
         </is>
       </c>
@@ -1981,20 +1983,19 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Case Type:
-- Criminal Procedure (Detention Extension)
-Legal Issues:
-- Extension of pre-trial detention beyond nine months
-- Compliance with Criminal Procedure Law regarding detention regulations
-Summary of Facts:
-- Respondent Esther Michaeli-Lavi is under detention
-- This is the eighth petition for extension of detention
-- Case is pending in District Court (T.P. 312/98)
-- Extension request made under Section 62 of Criminal Procedure Law
-Court Decision:
-- Detention extended by 90 days by mutual agreement
-- Extension valid until verdict issuance or end of 90-day period, whichever occurs first
-Relevant Laws:
+          <t>1. Case Number: Bash"P 2061/01
+2. Case Type: Criminal
+3. Legal Issues:
+- Extension of detention period beyond nine months
+- Application of Criminal Procedure Law regarding detention regulations
+4. Summary of Facts:
+- Case involves defendant Esther Michaeli-Lavi
+- Eighth petition for detention extension
+- Related to ongoing case T.P. 312/98 in District Court
+5. Court Decision:
+- Detention extended by 90 days by agreement
+- Extension valid until verdict in T.P. 312/98 or end of 90-day period, whichever occurs first
+6. Relevant Laws and Precedents:
 - Section 62 of the Criminal Procedure Law (Regulations Regarding Enforcement - Detentions), 5736-1996</t>
         </is>
       </c>
@@ -2033,23 +2034,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Case Type:
-Criminal Appeal
-Legal Issues:
-- Appeal against criminal convictions for multiple offenses
-- Review of District Court judgment regarding fraud, forgery, and money laundering charges
-Summary of Facts:
-- Multiple appellants filed appeals against District Court convictions
-- Case involves multiple related appeals (Case numbers 7774/18, 7804/18, 7817/18, and 7818/18)
-- Multiple parties involved, including individuals and corporate entities
-- Primary defendant Y. Hillel &amp; Co. Ltd. appealed against District Court judgment
-- Cases involve allegations of fraud, forgery, and money laundering
-- Travel and tourism companies are among the involved parties
-Court Decision:
-- District Court initially convicted defendants of fraud, forgery, and money laundering offenses
-Relevant Laws and Precedents:
-- Criminal Code provisions related to fraud
-- Criminal Code provisions related to forgery
+          <t>1. Case Number: 7774/18 (with related cases 7804/18, 7817/18, and 7818/18)
+2. Case Type: Criminal Appeal
+3. Legal Issues:
+- Appeal against District Court convictions for multiple criminal offenses
+- Challenges to convictions for fraud, forgery, and money laundering
+4. Summary of Facts:
+- Multiple appellants including Y. Hillel &amp; Co. Ltd., Nakhman Keidar, Tzvi Sa'ar, and others
+- Original convictions obtained in District Court of Tel Aviv-Yafo
+- Multiple respondents including the State of Israel as primary respondent
+- Case involves multiple travel and tourism companies
+- Criminal charges centered on fraud, forgery, and money laundering activities
+5. Court Decision:
+- Original District Court ruling resulted in convictions for fraud, forgery, and money laundering
+6. Relevant Laws and Precedents:
+- Criminal Code provisions relating to fraud
+- Criminal Code provisions relating to forgery
 - Money laundering statutes</t>
         </is>
       </c>
@@ -2088,28 +2088,28 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1. Case Type:
-- Civil Appeal case at Supreme Court level
-2. Legal Issues:
-- Land seizure compensation dispute
-- Settlement agreement terms
-- Calculation of compensation payments
-- Statute of limitations on claims
-3. Summary of Facts:
-- Original compensation awarded by District Court was $94,615
-- $11,000 deduction for claims prior to 10-year limitation period
+          <t>1. Case Number: Appeal No. 9763/05
+2. Case Type: Civil Appeal
+3. Legal Issues:
+- Land seizure compensation claims
+- Settlement of past payments and interest
+- Calculation of compensation amounts
+- Statute of limitations considerations
+4. Summary of Facts:
+- Original compensation of $94,615 was awarded by District Court
+- $11,000 deduction for claims prior to ten-year limitation period
 - Compensation calculated based on dollar exchange rate at claim filing
 - Previous payments made between 1986-1996 to be deducted
-- Appellants waive claims regarding past land seizures
+- Settlement includes interest and legal costs
 - Appellants retain right to file new claims for future compensation
 - State's payment does not constitute admission of rightful claims
-4. Court Decision:
-- Settlement agreement approved
-- Previously paid expenses remain with appellants
-- Each party to bear their own legal costs
-5. Relevant Laws and Precedents:
+5. Court Decision:
+- Approval of settlement agreement
+- Each party to bear their own costs
+- Previously paid expenses will not be returned
+6. Relevant Laws and Precedents:
 - Legal interest rate provisions
-- Ten-year statute of limitations on claims</t>
+- Ten-year statute of limitations</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2147,20 +2147,19 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Case Type: Administrative/Jurisdictional
-Legal Issues:
-- Determination of proper court jurisdiction in a marriage dissolution case
-- Application of Special Cases jurisdiction law regarding marriage dissolution
-Summary of Facts:
+          <t>1. Case Number: HCJ 1385/01
+2. Case Type: Administrative
+3. Legal Issues:
+- Determination of jurisdictional authority for marriage dissolution proceedings
+4. Summary of Facts:
 - Petitioner Natalia Pinaiev seeks court jurisdiction determination
 - Case involves marriage dissolution between Mr. and Mrs. Pinaiev
 - Matter brought before Supreme Court President
-- Attorney General is named as second respondent
-Court Decision:
-- Family Court in Ashdod granted jurisdiction over the marriage dissolution case
-Relevant Laws and Precedents:
-- Law on Jurisdiction over Matters of Marriage Dissolution (Special Cases), 5729-1969
-- Section 1(a) of the Law on Jurisdiction over Matters of Marriage Dissolution</t>
+- Attorney General named as second respondent
+5. Court Decision:
+- Family Court in Ashdod granted jurisdiction over the marriage dissolution
+6. Relevant Laws and Precedents:
+- Law on Jurisdiction over Matters of Marriage Dissolution (Special Cases), 5729-1969, Section 1(a)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2198,27 +2197,29 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Case Type:
-Criminal Appeals Case
-Legal Issues:
-- Appeal against severity of sentence for assisting in aggravated assault
+          <t>1. Case Number: 8750/16
+2. Case Type: Criminal Appeal
+3. Legal Issues:
+- Appeal against severity of sentence
 - Appropriateness of compensation amount
-- Review of sentencing within plea bargain parameters
-Summary of Facts:
-- Appellant acted as an observer in a Molotov cocktail attack on a vehicle
-- Attack resulted in severe injuries to passenger and driver
+4. Summary of Facts:
+- Appellant acted as an observer during a Molotov cocktail attack
+- Attack targeted a car stopped at intersection
+- Passenger suffered severe injuries (67% disability)
+- Driver (passenger's husband) was injured
+- Vehicle caught fire
 - Appellant was 19 years old with no prior criminal record
 - Plea bargain agreed to 36-60 months imprisonment range
-- Victim sustained 67% disability
-- Appellant committed disciplinary offenses while in prison
-- Other participants received sentences ranging from 5 to 10 years
-- District Court imposed 48 months imprisonment and 40,000 NIS compensation
-Court Decision:
-Appeal dismissed, upholding original sentence of 48 months imprisonment and 40,000 NIS compensation
-Relevant Laws and Precedents:
-- Section 329(a)(1) of the Penal Law, 5737-1977 (Aggravated assault with intent)
-- Section 31 of the Penal Law (Assistance provision)
-- Section 499(a)(1) of the Penal Law (Criminal conspiracy)</t>
+- Appellant received disciplinary infractions while in prison
+- Other participants received sentences ranging from 5-10 years
+5. Court Decision:
+- Appeal dismissed entirely
+- Original sentence of 48 months imprisonment maintained
+- Compensation amount of 40,000 NIS upheld
+6. Relevant Laws and Precedents:
+- Section 329(a)(1) of Penal Law, 5737-1977 (Aggravated assault with intent)
+- Section 31 of Penal Law
+- Section 499(a)(1) of Penal Law (Conspiracy to commit a crime)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2256,24 +2257,24 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Case Type:
-Criminal appeal case
-Legal Issues:
-- Appropriateness of sentencing for assisting arson
-- Illegal presence in Israel
-- Disparity in sentencing between co-defendants
-- Consideration of rehabilitation opportunities
-Summary of Facts:
-- Appellant pleaded guilty to assisting arson and unlawful presence
+          <t>1. Case Number: 9387/16
+2. Case Type: Criminal Appeal
+3. Legal Issues:
+- Appropriateness of sentencing for arson assistance
+- Sentencing disparity between co-defendants
+- Treatment of illegal stay offense in sentencing
+4. Summary of Facts:
+- Appellant pleaded guilty to assisting arson and unlawful presence in Israel
 - Appellant helped another defendant set fire to a motorcycle following a dispute
 - Appellant was in Israel with an expired visitor's visa
 - Appellant tested positive for cannabis use
-- Appellant failed to attend rehabilitation programs and missed scheduled meetings
-- Two co-defendants received different sentences (12 months and 6 months community service)
-- Appellant received 8 months imprisonment plus suspended sentences
-Court Decision:
-Appeal denied, original sentence of 8 months imprisonment maintained
-Relevant Laws and Precedents:
+- Appellant failed to attend probation meetings and drug tests
+- District Court imposed eight-month prison sentence
+- Co-defendant 1 received twelve months, co-defendant 2 received community service
+- Appellant was offered rehabilitation opportunity but failed to comply
+5. Court Decision:
+Appeal denied, original eight-month prison sentence upheld
+6. Relevant Laws and Precedents:
 - Section 448(a)(1) and Section 31 of the Penal Law, 5737-1977
 - Section 12(1) of the Entry into Israel Law, 5712-1952
 - CrimA 6602/13 Pnini v. State of Israel (regarding individualized sentencing)</t>
@@ -2314,26 +2315,26 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Case Type:
-- Civil Appeals (Two interconnected appeals at Supreme Court level)
-Legal Issues:
-- Dispute between private individuals and local planning/municipal authorities
-- Financial compensation matter related to planning and building decisions
-Summary of Facts:
-- Two concurrent appeals filed (No. 983/19 and No. 1017/19)
-- Original case involved private individuals against Local Planning Committee and Municipality
-- Appeals stemmed from District Court judgment
-- Parties reached settlement agreement during Supreme Court proceedings
-- Settlement involved monetary compensation of NIS 2,200,000
-- Agreement stipulates deduction of previous payments made under District Court judgment
-Court Decision:
+          <t>1. Case Number: 
+- Appeal No. 983/19 and Appeal No. 1017/19
+2. Case Type:
+- Civil Appeals
+3. Legal Issues:
+- Appeals against a District Court judgment in case H.P. 5956-07-13
+4. Summary of Facts:
+- Multiple individual appellants (Sokol family members, Goldstein family members, and others) versus Local Planning and Building Committee and Municipality
+- Original judgment was issued by District Court
+- Both parties filed cross-appeals
+- Parties reached a settlement agreement
+- Settlement amount of NIS 2,200,000 to be paid to original appellants
+- Amount subject to interest and inflation adjustments if not paid within 30 days
+- Previous payments from District Court judgment to be deducted
+5. Court Decision:
 - Settlement agreement approved by court
-- Respondents to pay NIS 2,200,000 to appellants
-- Payment subject to interest and inflation adjustments if not paid within 30 days
-- No additional costs awarded
-- Settlement supersedes original District Court judgment
-Relevant Laws and Precedents:
-- Planning and Building Laws (implied by involvement of Local Planning and Building Committee)</t>
+- Agreement replaces original District Court judgment
+- No costs awarded to either party
+6. Relevant Laws and Precedents:
+- District Court judgment H.P. 5956-07-13</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2371,29 +2372,28 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Case Type: Criminal
-Legal Issues:
-- Home invasion and burglary
-- Assault and threats against elderly victim
-- Theft
-- Extortion by threat
-- Appeal against sentencing
-Summary of Facts:
+          <t>1. Case Number: 6423/11
+2. Case Type: Criminal
+3. Legal Issues:
+- Appeal against sentencing for breaking and entering, theft, and extortion
+- Consideration of rehabilitation potential vs public safety
+- Appropriateness of sentence length given criminal history
+4. Summary of Facts:
 - Appellant broke into elderly woman's home with an accomplice
-- Appellant wore plastic bag to conceal identity
-- Victim was threatened with harm if she made noise
-- Accomplice carried pliers and searched the apartment
-- 200 NIS and various items were stolen
-- Victim was prevented from using bathroom and restricted to bed
-- Appellant chased victim when she escaped
-- Appellant has approximately 35 prior property offense convictions
+- Wore plastic bag over head to avoid identification
+- Threatened victim with harm if she made noise
+- Stole 200 NIS and various items
+- Restricted victim's movement and pursued her when she escaped
+- Appellant has history of approximately 35 property offenses
 - Appellant was under suspended sentence at time of offense
-Court Decision:
-Appeal dismissed, maintaining original sentence of 52 months (42 months plus 10 months activated suspended sentence)
-Relevant Laws and Precedents:
-- Sections 406(b), 383, 29, and 428(c) of the Penal Law, 1977
-- CrimA 3297/10 Volkov v. The State of Israel
-- Criminal charges: Breaking and entering a dwelling, theft, extortion by threat</t>
+- Appellant has long-term drug addiction
+5. Court Decision:
+- Appeal dismissed
+- Original sentence upheld: 42 months imprisonment plus 10 months activated suspended sentence
+- Total imprisonment: 52 months
+6. Relevant Laws and Precedents:
+- Sections 406(b), 383, 29, 428(c) of the Penal Law, 1977
+- CrimA 3297/10 Volkov v. The State of Israel</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2431,21 +2431,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Case Type:
-Criminal case
-Legal Issues:
-- Appeal of sentencing severity
-- Consideration of defendant's mental state in sentencing
-Summary of Facts:
-- State of Israel appealed against sentence imposed on Reuven Naim
-- State argued the original sentence was too lenient
-- Defendant's mental state was a significant factor in the case
-- Case was heard at appellate level
-Court Decision:
-Appeal dismissed, original sentence maintained
-Relevant Laws and Precedents:
-- Criminal sentencing guidelines (implied)
-- Consideration of mental state in criminal sentencing (implied)</t>
+          <t>1. Case Number: 283/03
+2. Case Type: Criminal
+3. Legal Issues:
+- Appropriateness of sentencing
+- Consideration of mental state in sentencing decisions
+4. Summary of Facts:
+- State of Israel appealed against sentence imposed by District Court
+- Appellant is Reuven Naim
+- State argued sentence was too lenient
+- Defendant's mental state was a significant factor
+- Case involved appellate review of lower court sentencing
+5. Court Decision:
+- Appeal dismissed
+- Original sentence maintained due to defendant's mental state and case circumstances
+6. Relevant Laws and Precedents:
+- Appellate review standards for criminal sentencing</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2483,21 +2484,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Case Type:
-- Civil Appeal Case
-Legal Issues:
-- Municipal Planning and Building Dispute
-Summary of Facts:
+          <t>1. Case Number: Appeal No. 8663/13
+2. Case Type: Civil Appeal
+3. Legal Issues:
+- Municipal dispute between local government and private company
+- Planning and building committee matters
+4. Summary of Facts:
 - Municipality of Givat Shmuel and Local Planning Committee filed an appeal
-- Appeal was against a District Court judgment
-- Beit Arlozorov Company Ltd. was the respondent
-- Case originated from a civil proceeding at District Court level
-- Three Supreme Court justices presided over the appeal
-Court Decision:
-- Appeal was dismissed
-- No costs were ordered against either party
-Relevant Laws and Precedents:
-- Planning and Building Laws (implied by parties involved)</t>
+- Beit Arlozorov Company Ltd. is the respondent
+- Case originated from District Court (Central-Lod Branch)
+- Initial ruling was made by Judge Y. Shepsher
+- Supreme Court panel consisted of three justices
+5. Court Decision:
+- Appeal dismissed
+- No costs ordered against either party
+6. Relevant Laws and Precedents:
+- Planning and Building Law (implied by involvement of Local Planning Committee)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2535,26 +2537,26 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Case Type:
-- Civil Appeal Case
-Legal Issues:
+          <t>1. Case Number: Appeal No. 3721/10
+2. Case Type: Civil Appeal
+3. Legal Issues:
 - Dismissal of appeal proceedings
 - Return of court deposit
-- Question of court costs
-Summary of Facts:
-- Appellant (Hassan Mahmoud Zatam) filed an appeal against Bank Hapoalim Ltd. and Official Receiver
-- Appellant submitted a notice of dismissal
+- Award of legal costs
+4. Summary of Facts:
+- Appellant (Hassan Mahmoud Zatam) filed appeal against Bank Hapoalim Ltd. and Official Receiver
+- Appellant submitted notice of dismissal
 - Respondents provided their responses
 - No costs were awarded in interim proceedings
-- A deposit was made during the proceedings
-Court Decision:
+- Case involved a court deposit
+5. Court Decision:
 - Appeal dismissed
 - No costs awarded to either party
-- Deposit to be returned to depositor subject to Registrar's confirmation
-- Scheduled hearing canceled
-Relevant Laws and Precedents:
-- Court procedures regarding dismissal of appeals
-- Regulations concerning return of court deposits</t>
+- Court deposit to be returned to depositor subject to Registrar's verification
+- Scheduled panel hearing canceled
+6. Relevant Laws and Precedents:
+- Administrative procedures regarding court deposits
+- Judicial discretion on costs awards in dismissed proceedings</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2592,25 +2594,26 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Case Type:
-- Civil Appeal Case
-Legal Issues:
+          <t>1. Case Number: Appeal No. 5003/01
+2. Case Type: Civil Appeal
+3. Legal Issues:
 - Period of notice dispute
-- Monetary award challenge
+- Monetary award calculation
 - Legal fees assessment
-Summary of Facts:
-- Technological Lahev Ltd. filed an appeal against Reuven Ben Harosh and others
-- Case originated from Haifa District Court civil proceedings
-- Respondents offered to withdraw counter-appeal if main appeal was dismissed
-- Case involved disputes over notice period and monetary compensation
-Court Decision:
+4. Summary of Facts:
+- Appeal filed against Haifa District Court judgment in Civil Case No. 133/96
+- Technological Lahev Ltd. served as Appellant
+- Reuven Ben Harosh and others were Respondents
+- Respondents agreed to withdraw counter-appeal if main appeal dismissed
+- Case heard before three Supreme Court justices
+5. Court Decision:
 - Appeal dismissed
 - Counter-appeal dismissed
-- Appellant ordered to pay 20,000 NIS in attorney's fees to Respondents
-- Court upheld District Court's original conclusions on notice period and monetary award
-Relevant Laws and Precedents:
-- Court affirmed judicial discretion in monetary award estimation
-- Court maintained precedent of non-intervention in lower court decisions absent compelling reasons</t>
+- Appellant ordered to pay 20,000 NIS in attorney's fees
+- Court upheld District Court's conclusions on notice period and monetary award
+6. Relevant Laws and Precedents:
+- Judicial discretion in monetary award estimation
+- Legal principles regarding notice periods</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2648,22 +2651,23 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Case Type:
-- Civil Appeal
-Legal Issues:
-- Appeal regarding expenses and attorney fees in relation to potential future litigation
-Summary of Facts:
-- Three appellants (Tzvi Yaacovovich, Yeheam Halevi, and 2001 Computer Systems Services Ltd.) filed an appeal against respondent Ephraim Oryon
-- The appeal relates to a judgment from the District Court
-- Parties accepted a recommendation regarding conditional payment of expenses
-- Agreement stipulates payment by respondent to appellants if future lawsuit is dismissed
-- Payment would be additional to any expenses awarded in subsequent proceedings
-Court Decision:
+          <t>1. Case Number: Appeal No. 8400/09
+2. Case Type: Civil Appeal
+3. Legal Issues:
+- Determination of additional expenses and attorney fees in relation to potential future litigation
+4. Summary of Facts:
+- Three appellants (Tzvi Yaacovovich, Yeheam Halevi, and 2001 Computer Systems Services Ltd.) filed an appeal against Ephraim Oryon
+- The case originated from the Tel Aviv-Yafo District Court
+- Parties accepted court's recommendation during the hearing
+- Agreement to set conditional expenses payment by respondent to appellants
+- Payment contingent on dismissal of potential future lawsuit
+- Additional sum would supplement any expenses awarded in subsequent proceedings
+5. Court Decision:
 - Appeal upheld
-- Additional sum for expenses and attorney fees set at 20,000 NIS
-- Payment contingent on dismissal of potential future lawsuit
-Relevant Laws and Precedents:
-- Civil Appeal procedures at Supreme Court level</t>
+- Additional expenses and attorney fees set at 20,000 NIS
+- Payment conditional on dismissal of future lawsuit
+6. Relevant Laws and Precedents:
+- Civil appeals procedures of the Supreme Court</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2701,7 +2705,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Given that the provided document appears to be a technical error message rather than a legal document, I cannot provide a legal analysis. The document contains HTTP status codes, timestamps, and processing information related to what seems to be a web scraping or API request failure, rather than legal content.</t>
+          <t>Based on the provided document, which appears to be a technical error message rather than a legal document, I cannot provide a legal analysis as there is no legal content to analyze. The document contains only system status information and error details related to a webpage loading timeout.</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2739,33 +2743,33 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Case Type: Civil (Medical Malpractice/Patient Rights)
-Legal Issues:
-- Medical negligence in catheterization procedure
+          <t>1. Case Number: Appeal No. 9636/10
+2. Case Type: Civil Appeal
+3. Legal Issues:
+- Medical negligence
 - Informed consent requirements
-- Violation of patient autonomy
+- Patient autonomy rights
 - Compliance with Patient Rights Law
-- Causation between lack of disclosure and patient consent
-Summary of Facts:
-- Patient underwent heart catheterization for diagnostic purposes
-- Patient suffered a stroke during procedure and became disabled
-- Patient signed consent form immediately before procedure without glasses
-- Doctor claimed typical explanation of risks but couldn't recall specific conversation
-- Patient claimed no explanation of risks or alternatives was provided
-- Medical record contained minimal documentation
-- Consent form was signed after patient was prepared for procedure
-- Procedure was non-urgent with high success rates and low risks
-Court Decision:
+- Liability for inadequate disclosure of medical risks
+4. Summary of Facts:
+- Patient underwent heart catheterization and suffered a stroke
+- Patient sued referring physician, National Health Fund, and medical center
+- Patient signed consent form without proper reading or understanding
+- Doctor couldn't recall specific details of patient consultation
+- Consent form was signed shortly before procedure after patient's glasses were removed
+- Patient claimed lack of explanation about risks and alternatives
+- Procedure was non-urgent with high success rates and low risk
+- Medical records contained minimal documentation
+5. Court Decision:
 - Appeal partially accepted
 - Court found violation of patient autonomy
-- No causation established between lack of disclosure and disability
-- Damages awarded for violation of autonomy (150,000 NIS)
-- Costs split equally between health fund/doctor and hospital
-Relevant Laws and Precedents:
+- Awarded damages of 150,000 NIS jointly against respondents
+- Costs and attorney fees of 10,000 NIS awarded
+6. Relevant Laws and Precedents:
 - Patient Rights Law, 5756-1996, Section 14(b)
-- Requirements for written consent for invasive procedures
+- Requirements for written consent for medical procedures
 - Legal standards for informed consent
-- Requirements for medical documentation</t>
+- Requirements for documentation of patient consultations</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2803,21 +2807,21 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Case Type:
-- Civil case (Appeal to Supreme Court)
-Legal Issues:
-- Dispute between private individual and state-owned roads company
-Summary of Facts:
-- Appeal filed by Rinat Fanker against Nativ Israel - National Roads Company Ltd
-- Case originated in District Court
-- Appeal was withdrawn after court advisement
-- Nativ Israel is a state-owned company responsible for road construction and maintenance
-Court Decision:
-- Appeal dismissed
-- Lower court's decision upheld
-Relevant Laws and Precedents:
-- Case No. 3203/20 (Supreme Court)
-- Case No. 37360-03-16 (District Court)</t>
+          <t>1. Case Number: 3203/20
+2. Case Type: Civil
+3. Legal Issues:
+- Appeal against District Court ruling
+- Dispute with state-owned infrastructure company
+4. Summary of Facts:
+- Appeal filed by Rinat Fanker against Nativ Israel - National Roads Company Ltd.
+- Original case heard in District Court
+- Nativ Israel is a state-owned company responsible for road infrastructure
+- Appeal was withdrawn following court advisement
+- Supreme Court upheld the lower court's decision
+5. Court Decision:
+Appeal dismissed, District Court ruling upheld
+6. Relevant Laws and Precedents:
+Original District Court case: H.C. 37360-03-16</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2855,29 +2859,29 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Case Type:
-Civil Appeal
-Legal Issues:
-- Appeal against waiver of court fees
-- Procedural rules regarding re-appealing decisions
-- Right to challenge interlocutory rulings within final judgment appeals
-Summary of Facts:
-- Appellant filed a lawsuit for NIS 265 million against multiple respondents
-- District Court granted partial waiver of court fees (10% initial payment)
-- Appellant was required to pay remaining fees in two installments
-- Appellant failed to file revised complaint as per court instructions
-- Case was dismissed due to non-compliance with court orders
-- Multiple appeals were filed regarding the fee waiver decision
-Court Decision:
+          <t>1. Case Number: Civil Appeal No. 5797/19
+2. Case Type: Civil
+3. Legal Issues:
+- Court fee waiver eligibility
+- Procedural rules regarding appeals of interlocutory decisions
+- Right to re-appeal decisions previously reviewed in appellate proceedings
+4. Summary of Facts:
+- Appellant filed lawsuit for NIS 265 million against five respondents
+- District Court partially granted fee waiver, allowing 10% initial payment
+- Appellant appealed fee decision to District Court
+- District Court granted partial waiver up to NIS 500,000
+- Appellant failed to file revised complaint as instructed
+- Original lawsuit was dismissed due to non-compliance
+5. Court Decision:
 - Appeal dismissed
-- Court determined appellant cannot re-challenge decisions already ruled upon in previous appellate proceedings
-- Original dismissal of the lawsuit was upheld
-Relevant Laws and Precedents:
+- Court upheld original dismissal of lawsuit
+- Determined appellant cannot re-challenge decisions already ruled upon in previous appellate proceedings
+6. Relevant Laws and Precedents:
 - Courts Law [Consolidated Version], 1984, Section 96
 - Civil Procedure Rules, Rule 411 (later Rule 150)
 - Court Fees Regulations, 5766-2007
-- Weinshl v. Ministry of Defense case
-- Tzimering v. Gordin case</t>
+- Weinshl v. Ministry of Defense (Case No. 8880/13)
+- Tzimering v. Gordin (Case No. 38/77)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2915,23 +2919,23 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Case Type: Criminal (Appeals)
-Legal Issues:
-- Implementation of sentencing through community service
-- Terms of compliance with probation requirements
-Summary of Facts:
-- Appellant's previous appeal was rejected by Supreme Court
-- Probation Service submitted an updated report
-- Court ordered community service at Keshet-Shor Center
-- Appellant must report to Central District headquarters for intake
-- Location and work hours may be subject to change
-- Non-compliance with terms may result in imprisonment
-Court Decision:
-- Appellant ordered to serve sentence through community service
-- Specific reporting location and time established
-- Warning issued regarding strict compliance with employment terms
-- Non-compliance will result in conversion to prison sentence
-Relevant Laws and Precedents:
+          <t xml:space="preserve">
+2. Case Type: Criminal (Appeals Court)
+3. Legal Issues:
+- Terms of community service sentence execution
+- Conditions for alternative sentencing
+4. Summary of Facts:
+- Appeal was previously rejected by Supreme Court
+- Probation Service submitted updated report
+- Appellant assigned to serve sentence at Keshet-Shor Center
+- Mandatory reporting to Central District supervisor required
+- Location and work hours subject to potential changes
+- Strict compliance with employment terms required
+- Non-compliance may result in imprisonment
+5. Court Decision:
+- Court ordered appellant to serve sentence through community service at specified facility
+- Warning issued regarding strict compliance with terms
+6. Relevant Laws and Precedents:
 - Criminal sentencing guidelines regarding community service
 - Probation Service regulations</t>
         </is>
@@ -2971,31 +2975,32 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1. Case Type:
-Civil case (Administrative Appeal)
-2. Legal Issues:
-- Appeal against a decision of the Council for Plant Production and Marketing
-- Procedural matters regarding submission of arguments and court proceedings
-3. Summary of Facts:
-- Multiple agricultural businesses and individuals filed an appeal against the Council for Plant Production and Marketing and numerous other respondents
-- The case involves multiple parties (over 48 named parties)
-- The court established specific procedural requirements for written submissions
-- Written arguments are limited to 10 pages for main submissions and 2 pages for reply briefs
-- Parties must submit citation lists with their arguments
-- Double-line spacing required for all submissions
-- Three copies of submissions must be provided to the court
-- Oral arguments will follow written submissions
-4. Court Decision:
-Procedural ruling establishing:
-- Deadlines for written submissions
-- Format requirements for legal documents
-- Citation submission guidelines
-- Schedule for oral arguments
-- Requirements for modification requests
-5. Relevant Laws and Precedents:
+          <t>1. Case Number: 6226/21
+2. Case Type: Civil Case (Supreme Court of Israel)
+3. Legal Issues:
+- Appeal case involving multiple parties
+- Procedural matters regarding submission of arguments and documentation
+4. Summary of Facts:
+- Multiple appellants (including individuals and companies) filed an appeal against 48 respondents
+- Case involves agricultural/farming entities and cooperative societies
+- Court established specific procedural requirements for written submissions
+- Written arguments limited to 10 pages for main submissions
+- Reply briefs limited to 2 pages
+- Double spacing required for all submissions
+- Parties must submit citation lists
+- Three copies of submissions required
+- Oral arguments to follow written submissions
+5. Court Decision:
+- Procedural decision setting guidelines for:
+  - Submission deadlines
+  - Format requirements
+  - Citation requirements
+  - Oral argument scheduling
+  - Document distribution requirements
+6. Relevant Laws and Precedents:
 - Civil Procedure Rules, 2018
 - Director of Courts' Order on Form and Structure of Documents
-- Section 1 of the notice regarding document formatting</t>
+- Section 1 of the notice regarding document formatting (Y"P 9309, p. 2339 [2020])</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3033,17 +3038,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Case Type:
-- Civil Appeal Case
-Legal Issues:
-- Appeal against a District Court judgment
-Summary of Facts:
+          <t>1. Case Number: 3551/21
+2. Case Type: Civil Appeal
+3. Legal Issues:
+- Appeal against District Court judgment
+4. Summary of Facts:
 - Appeal filed by Amindav Brosh against Eran Ozan Kalifa and Green Israeli Ltd
-- Case originated from Tel Aviv-Yafo District Court
-- Matter heard before three Supreme Court Justices
+- Original judgment was issued by Tel Aviv-Yafo District Court
+- Case heard before three Supreme Court Justices
 - Appellant represented by Advocates Doron Zabari and Ofera Sheffer
 - Respondents represented by Advocate Natan Raskin
-Court Decision:
+5. Court Decision:
 - Appeal dismissed without costs</t>
         </is>
       </c>
@@ -3082,17 +3087,16 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Case Type:
-Administrative
-Legal Issues:
-- Request for postponement of a District Court decision execution
-Summary of Facts:
-- State of Israel filed request for postponement
-- Original decision was made by District Court
-- Both State's attorney and defendant's attorney agreed to postponement
-- Request was granted by Justice Malca
-Court Decision:
-Postponement request approved</t>
+          <t>1. Case Number: MTA 2188-10-12
+2. Case Type: Administrative
+3. Legal Issues:
+- Request for postponement of court decision execution
+4. Summary of Facts:
+- State of Israel filed a request to postpone execution of District Court decision
+- Both State's attorney and defendant's attorney agreed to the postponement
+- Justice Malca approved the postponement request
+5. Court Decision:
+- Request for postponement granted</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3130,28 +3134,29 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Case Type: Criminal
-Legal Issues:
+          <t>1. Case Number: 28100-07-20
+2. Case Type: Criminal
+3. Legal Issues:
 - Unlawful possession and firing of a firearm
 - Appropriateness of sentencing for firearm offenses
-- Balance between rehabilitation and public deterrence
-Summary of Facts:
+- Balance between deterrence and rehabilitation considerations
+4. Summary of Facts:
 - Defendant arrived at an event hall on motorcycle with unlawful firearm
-- Fired several bullets into the air after loading the weapon
-- Had significant prior criminal record including four prison sentences
-- District Court imposed 14-month sentence plus suspended sentences
-- Defendant expressed remorse and had family dependents
+- Fired several bullets into the air after speaking with others carrying firearms
+- Defendant had significant prior criminal record including four prison sentences
+- Initial sentence was 14 months imprisonment
+- Defendant expressed remorse and had family dependencies
 - Weapon was never surrendered to authorities
 - Probation service recommended community service
-Court Decision:
+5. Court Decision:
 - Appeal granted
 - Sentence increased from 14 to 25 months imprisonment
-- Other components of original sentence remained unchanged
-Relevant Laws and Precedents:
-- Section 144(b) of the Penal Law: carrying a weapon
-- Section 340a(a): firing a firearm in residential area
+- Additional components of original sentence remained unchanged
+6. Relevant Laws and Precedents:
+- Section 144(b) of the Penal Law, 5737-1977
+- Section 340a(a) of the Penal Law
 - CrimA 4595/13 Zubidat v. State of Israel
-- 2018 Amendment to Section 340A increasing penalties
+- 2018 Amendment to Section 340A of the Penal Law
 - CrimA 8045/17 Bransi v. State of Israel
 - Ra'af 5613/20 Elhuzail v. State of Israel</t>
         </is>
@@ -3191,25 +3196,24 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Case Type:
-- Civil Appeals (Supreme Court)
-Legal Issues:
-- Property dispute involving construction and ownership
+          <t>1. Case Number:
+- Appeal No. 3735/19 and Appeal No. 3804/19
+- Original Civil Case No. 42023-03-13
+2. Case Type:
+- Civil Appeals
+3. Legal Issues:
+- Property dispute between construction company and joint owners
 - Monetary compensation claims
-- Procedural matters regarding abandoned elements in lower court judgment
-Summary of Facts:
-- Two related appeals filed at Supreme Court
-- Involves Merdechi Kalech Properties and Construction Ltd. and David Kalech as one party
+- Disputed abandoned elements from lower court judgment
+4. Summary of Facts:
+- Case involves Merdechi Kalech Properties and Construction Ltd. and David Kalech as one party
 - Joint owners' committee and Porian family as opposing party
-- Original judgment from District Court being appealed
-- Court found certain elements were incorrectly marked as abandoned in lower court
-- Parties agreed to allow court discretion in awarding compensation
-Court Decision:
-- Respondents ordered to pay NIS 155,000 (including costs and attorney fees)
-- Main arguments from both sides rejected
-- Partial compensation awarded for previously "abandoned" elements
-Relevant Laws and Precedents:
+- Appeals filed against Central District Court judgment
+- Parties authorized court to award monetary compensation
+- Court exercised discretion under Section 79A of Courts Law
+5. Court Decision:
+- Respondents in Case No. 3804/19 ordered to pay NIS 155,000 (including costs and attorney fees)
+6. Relevant Laws and Precedents:
 - Section 79A of the Courts Law (Consolidated Version), 1984</t>
         </is>
       </c>
@@ -3248,22 +3252,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Case Type: Administrative/Civil
-Legal Issues:
-- Procedural matter regarding extension request for appeal response
-- Matter involves religious institutions and foundation registry
-Summary of Facts:
-- Multiple religious institutions and rabbinical figures are listed as Appellants
+          <t>1. Case Number: 6090/22
+2. Case Type: Administrative
+3. Legal Issues:
+- Application for extension to file response to appeal
+- Matter involving religious institutions and foundations registration
+4. Summary of Facts:
+- Multiple religious figures and institutions are listed as Appellants
 - Main appellant is Shaare Zedek Medical Center
 - Respondents include a synagogue association and the Ministry of Justice
 - Case involves the Registrar of Foundations
-- Request made for extension to file response to appeal
-Court Decision:
-- Extension request granted as per agreement of parties
-Relevant Laws and Precedents:
-- Israeli Foundation Registry regulations
-- Administrative procedures regarding appeals</t>
+- Request made for extension to file response
+5. Court Decision:
+Extension granted as requested and agreed upon
+6. Relevant Laws and Precedents:
+- Regulations related to the Registrar of Foundations
+- Administrative procedures for religious institutions</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3301,21 +3305,24 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Case Type:
-- Civil Appeal Case
-Legal Issues:
-- Withdrawal of appeal from District Court decision
-- Agreement between parties for case resolution
-Summary of Facts:
+          <t>1. Case Number: 2929/06
+2. Case Type: Civil
+3. Legal Issues:
+- Appeal withdrawal process
+- Jurisdiction transfer back to lower court
+- Implementation of parties' mutual agreement
+4. Summary of Facts:
 - Appeal filed against Tel Aviv-Yafo District Court decision
-- Parties submitted joint motion with agreed-upon terms
+- Both parties jointly requested withdrawal of appeal
+- Parties reached mutual agreement outlined in joint motion
 - Case returned to District Court for final ruling
-- Scheduled hearing canceled due to parties' agreement
-Court Decision:
-- Appeal withdrawn based on parties' mutual request
-- Matter remanded to District Court for final ruling per agreed terms
-Relevant Laws and Precedents:
-- Supreme Court of Israel appellate jurisdiction</t>
+- Original scheduled hearing canceled
+5. Court Decision:
+- Appeal withdrawn by mutual consent
+- Matter remanded to District Court for final ruling based on agreed terms
+6. Relevant Laws and Precedents:
+- Supreme Court appellate jurisdiction
+- District Court civil procedure rules</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3353,27 +3360,28 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Case Type: Civil Appeal
-Legal Issues:
-- Property tax dispute
+          <t>1. Case Number: Appeal No. 47/15
+2. Case Type: Civil Appeal
+3. Legal Issues:
+- Property tax disputes
 - Municipal taxation authority
-- Validity of prior court judgments
-Summary of Facts:
-- Appeal against a District Court judgment
-- Case involves property tax matters between individual and Regional Council
-- Parties reached a settlement agreement
-- Previous appeals (6396/10 and 6824/10) remain valid
+- Payment obligations between local council and resident
+4. Summary of Facts:
+- Appeal against judgment of District Court
+- Original case involved property tax matters
+- Parties reached mutual agreement during proceedings
+- Previous judgments (Appeal No. 6396/10 and 6824/10) remain valid
 - Respondent must pay specified amounts within 30 days
-- Respondent must notify appellant of any outstanding property tax debt
-- Appellant retains right to challenge future tax demands
-Court Decision:
-- Settlement agreement approved by court
-- Previous judgments maintained
+- Respondent retains right to issue property tax demands
+- Appellant maintains right to challenge tax demands
+5. Court Decision:
+- Previous judgments upheld
 - Original appealed judgment replaced
-- Prior costs and attorney fees nullified
-- No new costs ordered
-Relevant Laws and Precedents:
-- Appeals 6396/10 and 6824/10</t>
+- Previous costs and attorney fees nullified
+- No new costs ordered due to mutual agreement
+6. Relevant Laws and Precedents:
+- Appeal No. 6396/10
+- Appeal No. 6824/10</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3411,21 +3419,20 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Case Type:
-Administrative/Civil (Jurisdictional Matter)
-Legal Issues:
-- Determination of proper court jurisdiction for marriage dissolution
-- Application of Special Cases jurisdiction law regarding marriage dissolution
-Summary of Facts:
-- Marina and Yuri Denisenko sought determination of jurisdiction for their marriage dissolution
+          <t>1. Case Number: HCJ 140/01
+2. Case Type: Administrative
+3. Legal Issues:
+- Determination of jurisdictional authority for marriage dissolution
+- Application of Special Cases law regarding marriage dissolution
+4. Summary of Facts:
+- Marina and Yuri Denisenko sought determination of jurisdiction for marriage dissolution
 - Case was brought before the Supreme Court
-- Matter required review by the Rabbinical Court of Appeals
-- Jurisdiction determination was made under Section 1(a) of the Law on Marriage Dissolution
-Court Decision:
-Family Court was granted jurisdiction over the marriage dissolution case
-Relevant Laws and Precedents:
-- Law on Jurisdiction over Matters of Marriage Dissolution (Special Cases), 5729-1969
-- Section 1(a) of the Marriage Dissolution Law</t>
+- Rabbinical Court of Appeals provided an opinion
+- Matter concerns jurisdiction between religious and civil courts
+5. Court Decision:
+Family Court granted jurisdiction over the marriage dissolution case
+6. Relevant Laws and Precedents:
+- Law on Jurisdiction over Matters of Marriage Dissolution (Special Cases), 5729-1969, Section 1(a)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3463,21 +3470,21 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Case Type:
-Civil - Family Law Matter
-Legal Issues:
-- Jurisdictional determination for divorce proceedings
+          <t>1. Case Number: HCJ 6386/00
+2. Case Type: Administrative (Jurisdictional Matter)
+3. Legal Issues:
+- Determination of proper court jurisdiction in divorce proceedings
 - Application of Marriage Dissolution Law (Special Cases)
-Summary of Facts:
-- Petitioner Pnariov Raisa filed against respondent Cherkov Sergei
-- Case involves determination of proper court jurisdiction for divorce proceedings
-- Attorney General included as second respondent
-- Matter falls under Marriage Dissolution Law (Special Cases), 1969
-Court Decision:
-Family Court in Ashdod granted jurisdiction over the marriage dissolution case
-Relevant Laws and Precedents:
+4. Summary of Facts:
+- Case involves divorce proceedings between Pnariov Raisa and Cherkov Sergei
+- Matter requires jurisdictional determination under special cases provision
+- Attorney General is named as second respondent
+- Case falls under Marriage Dissolution Law (Special Cases), 1969
+5. Court Decision:
+- Family Court in Ashdod granted jurisdiction over the marriage dissolution case
+6. Relevant Laws and Precedents:
 - Marriage Dissolution Law (Special Cases), 1969
-- Section 1(a) of Marriage Dissolution Law regarding jurisdictional authority</t>
+- Section 1(a) of the Marriage Dissolution Law</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3515,19 +3522,19 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Case Type:
-- Civil Appeal Case (Supreme Court)
-Legal Issues:
-- Appeal dismissal request by Appellants
-Summary of Facts:
-- Multiple Appellants (4) and Respondents (9) involved in the case
+          <t>1. Case Number: Appeal No. 551/18
+2. Case Type: Civil Appeal
+3. Legal Issues:
+- Dismissal of appeal at appellants' request
+4. Summary of Facts:
+- Four appellants filed an appeal against nine respondents
 - Appellants requested dismissal of their own appeal
 - Case involves court fees and deposit refund matters
-Court Decision:
+5. Court Decision:
 - Appeal dismissed
-- Filing fee refunded with deduction per regulations
+- Filing fee refunded with deductions per regulations
 - Deposit to be returned subject to clerk verification
-Relevant Laws and Precedents:
+6. Relevant Laws and Precedents:
 - Regulations on Fees for Courts (Ta'asukat Beit Ha-Mishpatim), 5767-2007, Part 33</t>
         </is>
       </c>
@@ -3566,25 +3573,25 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Case Type:
-- Criminal Case
-Legal Issues:
+          <t>1. Case Number: 6746/98
+2. Case Type: Criminal
+3. Legal Issues:
 - Appeal against severity of punishment
-- Scheduling priority for sentencing appeals versus conviction appeals
-Summary of Facts:
-- Appellant was convicted of conspiracy and bank robbery
-- Defendant entered bank in disguise with fake weapon
-- Threatened bank tellers and demanded money
-- Received 45 months imprisonment and 15 months probation
-- Appellant admits guilt but appeals sentence severity
+- Prioritization of appeal hearing scheduling
+4. Summary of Facts:
+- Appellant was convicted of conspiracy and robbery
+- Crime involved bank robbery with an accomplice
+- Appellant used disguise and fake weapon
+- Threatened bank tellers during robbery
+- Sentenced to 45 months imprisonment and 15 months probation
+- Appeal filed against severity of sentence only
 - Attorney requested expedited hearing date
-- Appeal challenges only the severity of punishment
-Court Decision:
-- Request for prioritized hearing denied
+5. Court Decision:
+- Request for priority hearing denied
 - Appeal to proceed according to standard scheduling queue
-Relevant Laws and Precedents:
-- Court's procedural guidelines regarding scheduling priority of appeals
-- Distinction between sentencing appeals and conviction appeals in terms of scheduling priority</t>
+6. Relevant Laws and Precedents:
+- Court's scheduling prioritization principles
+- Distinction between appeals against verdict versus appeals against sentence severity</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3622,26 +3629,26 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Case Type: Civil Appeal
-Legal Issues:
-- Validity of a municipal rehabilitation plan approval
-- Rights of creditors to object to rehabilitation plan terms
+          <t>1. Case Number: 6299/08
+2. Case Type: Civil Appeal
+3. Legal Issues:
+- Validity of rehabilitation plan approval
+- Rights of creditors in municipal rehabilitation proceedings
 - Jurisdiction between District Court and Labor Court
-Summary of Facts:
-- Mevatachim Social Security Fund appealed against District Court's decision
-- District Court approved a rehabilitation plan for Arraba Municipality
-- Two trustees were appointed in the rehabilitation plan
-- Appellant contested the plan's approval, claiming their objections were not considered
-- Appellant proposed to withdraw appeal and pursue claims in Labor Court
-- Court preserved parties' rights to raise arguments in future proceedings
-Court Decision:
+4. Summary of Facts:
+- Mevatachim Social Security Fund appealed District Court's decision
+- District Court approved rehabilitation plan for Arraba Municipality
+- Plan included appointment of two trustees
+- Appellant objected to plan's terms
+- Appellant proposed to withdraw appeal
+- Rights reserved for future Labor Court hearing
+5. Court Decision:
 - Appeal dismissed without costs
-- Appellant permitted to pursue claims in Labor Court
-- Court clarified previous District Court statement was not definitive ruling
-Relevant Laws and Precedents:
+- Appellant permitted to present arguments in Labor Court
+- District Court's statement deemed non-definitive
+6. Relevant Laws and Precedents:
 - Municipal rehabilitation procedures
-- Civil appeals procedures
-- Jurisdictional authority between District and Labor Courts</t>
+- Creditor rights in bankruptcy proceedings</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3679,18 +3686,19 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Case Type:
-- Civil Appeal Case
-Legal Issues:
-- Appeal against a lower court decision (specific legal questions not provided in document)
-Summary of Facts:
+          <t>1. Case Number: Appeal No. 5274/12
+2. Case Type: Civil Appeal
+3. Legal Issues:
+- Appeal against lower court decision
+- Matter involves banking relationship (based on Bank Hapoalim as respondent)
+4. Summary of Facts:
 - Appeal filed by Amzalem Mordechai
-- Respondents are Kriti Bracha Meira and Bank Hapoalim Ltd
-- Parties exempt from filing main arguments
+- Two respondents: Kriti Bracha Meira and Bank Hapoalim Ltd.
 - Preliminary hearing scheduled before Justice Yitzhak Amit
-- Court Registry directed to obtain lower court records
-Court Decision:
-- Procedural ruling scheduling preliminary hearing
+- Parties exempted from filing main arguments
+- Lower court record to be summoned by Registry
+5. Court Decision:
+- Scheduling of preliminary hearing
 - Exemption granted from filing main arguments</t>
         </is>
       </c>
@@ -3729,25 +3737,26 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Case Type:
-Criminal Appeal
-Legal Issues:
-- Sentencing modification
-- Eligibility for community service as alternative to imprisonment
-Summary of Facts:
+          <t>1. Case Number: 4260/03
+2. Case Type: Criminal Appeal
+3. Legal Issues:
+- Appropriateness of prison sentence length
+- Possibility of alternative sentencing through community service
+4. Summary of Facts:
 - Original sentence was nine months imprisonment
-- Appeal filed against district court sentencing
+- Appeal filed against district court's sentencing decision
 - Defendant named Yahav Digmi
-- Case originated in district court
-- Partial appeal acceptance with modified sentence
-Court Decision:
-- Original nine-month prison sentence reduced to six months
+- Case involves potential modification to community service
+- Probation report required for final determination
+5. Court Decision:
+- Appeal partially accepted
+- Prison sentence reduced from nine to six months
 - Possibility of serving sentence through community service pending suitability assessment
-- Other elements of original district court sentence remain unchanged
-- Final decision pending probation officer report
-Relevant Laws and Precedents:
+- Other elements of original district court sentence maintained
+- Final decision pending probation officer's report
+6. Relevant Laws and Precedents:
 - Criminal sentencing guidelines
-- Community service eligibility provisions</t>
+- Community service provisions in criminal law</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3785,21 +3794,23 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Case Type: Civil (Administrative Appeal)
-Legal Issues:
-- Non-compliance with court-ordered fee payment and security deposit requirements
-- Procedural requirements for maintaining an active appeal
-Summary of Facts:
+          <t>1. Case Number: A 7355/11
+2. Case Type: Administrative
+3. Legal Issues:
+- Non-compliance with court orders regarding fee payment and security deposit
+- Procedural requirements for maintaining an appeal
+4. Summary of Facts:
 - Appellant failed to pay required court fees
 - Appellant did not deposit security for appeal
-- Multiple prior decisions addressed fee and security requirements
+- Multiple court decisions were issued regarding payment requirements
 - Appellant requested additional explanations about security obligations
 - Appellant contacted a minister regarding fee payment
-Court Decision:
-Case dismissed from register due to non-compliance with fee and security requirements
-Relevant Laws and Precedents:
-- Court procedural rules regarding fee payment and security deposits
-- Prior court decisions on fee and security requirements in same case</t>
+- Previous decisions were not appealed by the appellant
+5. Court Decision:
+Appeal dismissed due to non-compliance with fee payment and security deposit requirements
+6. Relevant Laws and Precedents:
+- Court procedural rules regarding fee payment
+- Court procedural rules regarding security deposits for appeals</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3837,7 +3848,8 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Case Type: Criminal Appeal
+          <t>Case Number: 25386-08-14
+Case Type: Criminal
 Legal Issues:
 - Appeal against severity of sentence
 - Dangerous driving causing injury
@@ -3846,12 +3858,13 @@
 - Assault on police officer
 Summary of Facts:
 - Appellant was stopped by police on suspicion of robbery
-- Led police on high-speed chase, endangering other drivers
-- Officer Roy was injured while attempting to stop appellant's vehicle
-- Appellant collided with three vehicles during chase
+- Led police on high-speed chase while driving recklessly
+- Officer Roy was partially dragged by appellant's vehicle
+- Appellant collided with three other vehicles during pursuit
 - Fled on foot before being apprehended
 - Transported illegal residents without proper documentation
 - Drove without license while under suspension
+- Multiple injuries resulted to civilians and police officer
 - Had previous criminal record and suspended sentences
 Court Decision:
 - Appeal dismissed
@@ -3859,12 +3872,12 @@
 - Additional penalties including fines, probation, and vehicle forfeiture maintained
 Relevant Laws and Precedents:
 - Section 332(2) of the Penal Law, 1977
-- Entry into Israel Law, 1952
-- Road Traffic Ordinance
-- Motor Vehicle Insurance Ordinance
-- Criminal Procedure (Arrest and Search) Order
-- Multiple precedents establishing non-intervention in sentencing except in exceptional cases
-- Previous cases establishing need for deterrent punishment in dangerous driving cases</t>
+- Section 12a(g)(1) of the Entry into Israel Law, 1952
+- Section 47(a) of Criminal Procedure Order
+- Section 10(a) and 62(1) of Road Traffic Ordinance
+- Section 273 of the Penal Law (Assault on Police Officer)
+- Section 380 of the Penal Law (Causing Bodily Harm)
+- Multiple precedents regarding appellate intervention in sentencing</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3902,31 +3915,34 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Case Type: Criminal Appeal
-Legal Issues:
-- Appeal against conviction for sexual assault crimes
+          <t>1. Case Number: Appeal No. 319/21
+2. Case Type: Criminal Appeal
+3. Legal Issues:
 - Validity of DNA evidence and expert testimony
-- Challenge to photo lineup identification
-- Appeal against sentencing severity
-Summary of Facts:
+- Reliability of photo lineup identification
+- Sufficiency of alibi defense
+- Appropriateness of sentencing
+4. Summary of Facts:
 - Appellant convicted of rape, sodomy, kidnapping, robbery, and assault
-- Victim was offered a ride and subsequently attacked in a secluded area
+- Victim was offered a ride and subsequently attacked
 - DNA evidence matched appellant to samples from victim
 - Victim identified appellant in photo lineup
+- Appellant's car matched description and had distinctive features
 - Appellant had distinctive wound matching victim's description
-- Vehicle used matched appellant's car description
-- Appellant claimed alibi defense that was rejected
-Court Decision:
-- Appeal dismissed on both conviction and sentencing
-- Original conviction upheld based on DNA evidence and corroborating evidence
-- 15-year prison sentence maintained
-- Additional penalties including probation and victim compensation confirmed
-Relevant Laws and Precedents:
-- Penal Law Sections 345, 347, 374a, 377a, 402, 334
-- Precedents regarding DNA evidence admissibility
-- Case law on photo lineup identification procedures
-- Sentencing guidelines for sexual offenses
-- Section 355 of Penal Law regarding minimum sentences</t>
+- Appellant claimed alibi defense saying he was elsewhere
+5. Court Decision:
+- Appeal dismissed on all grounds
+- Original conviction and 15-year sentence upheld
+- Court found DNA evidence reliable and properly processed
+- Photo lineup identification deemed valid
+- Alibi defense rejected as unsubstantiated
+6. Relevant Laws and Precedents:
+- Penal Law Sections 345(b)(4), 345(b)(3), 345(a)(1)
+- Section 347(b) regarding sodomy
+- Section 402(b) regarding robbery
+- Section 334 regarding assault
+- Section 374a and 377a(a)(7) regarding kidnapping
+- Section 355 regarding minimum sentencing</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3968,32 +3984,31 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Case Type:
-Criminal Appeal
-Legal Issues:
+          <t>1. Case Number: 1494/07
+2. Case Type: Criminal Appeal
+3. Legal Issues:
 - Appeal against sentencing for endangering human life on a roadway
-- Appropriateness of prison sentence length
-- Balance of aggravating and mitigating factors in sentencing
-Summary of Facts:
-- Defendant used cell phone while driving and ignored police signals to stop
-- Led police on high-speed chase, endangering other vehicles
+- Appropriateness of prison sentence considering mitigating factors
+- Application of sentencing guidelines for traffic-related offenses
+4. Summary of Facts:
+- Defendant used cell phone while driving without hands-free device
+- Ignored police signals to stop and fled, initiating a police chase
+- Drove recklessly, endangering other vehicles
 - Chase ended when police used spike strips
-- Defendant pleaded guilty to the charges
+- Defendant was initially sentenced to 3 years imprisonment
 - Probation officer recommended community service and supervision
-- Initial sentence included three years imprisonment, twelve months probation, and license revocation
 - Defendant had prior traffic violations but no serious offenses
-- Defendant showed good behavior in prison and participated in rehabilitation
-Court Decision:
-Appeal partially accepted, reducing prison sentence from three years to two and a half years, with other conditions remaining unchanged
-Relevant Laws and Precedents:
+- Defendant admitted guilt and showed good behavior in prison
+5. Court Decision:
+- Appeal partially accepted
+- Sentence reduced from 3 years to 2.5 years imprisonment
+- Other elements of original sentence (probation and license revocation) maintained
+6. Relevant Laws and Precedents:
 - Section 332(b) of the Penal Law, 1977
-- Greenberg v. State of Israel
-- Anonymous v. State of Israel
-- Anwar v. State of Israel
-- State of Israel v. Abu Lakian
-- Hamdi v. State of Israel
-- State of Israel v. Al-Harumi
-- Al-Atarsh v. State of Israel</t>
+- Greenberg v. State of Israel (P. 1242/97)
+- Anonymous v. State of Israel (P. 5764/07)
+- Anwar v. State of Israel (P. 3383/05)
+- State of Israel v. Abu Lakian (P. 2410/04)</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4031,20 +4046,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1. Case Type:
-Civil case (administrative appeal)
-2. Legal Issues:
-Appeal against Local Council decision
-3. Summary of Facts:
-- Appeal filed by M.A.A Investments Ltd. against Local Council of Magdiel
+          <t>1. Case Number: A953/14
+2. Case Type: Civil
+3. Legal Issues:
+- Appeal dismissal by mutual agreement between parties
+4. Summary of Facts:
+- Appellant: M.A.A Investments Ltd.
+- Respondent: Local Council of Magdiel
 - Parties reached mutual agreement
-- Case terminated by consent
-- Filing fee to be partially refunded
-- Security deposit to be returned subject to clerk's approval
-4. Court Decision:
-Appeal dismissed by mutual consent without costs
-5. Relevant Laws and Precedents:
-Court Fees Regulations (Ta'asukat Beit Ha-Mishpatim), 5767-2007, Item 33 of Schedule A</t>
+- Filing fee to be refunded partially
+- Deposit to be returned pending clerk's verification
+5. Court Decision:
+- Appeal dismissed without costs
+- Filing fee refund approved minus regulatory deduction
+- Deposit return authorized subject to clerk clearance
+6. Relevant Laws and Precedents:
+- Court Fees Regulations (Ta'asukat Beit Ha-Mishpatim), 5767-2007, Item 33</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4082,22 +4099,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Case Type: Civil Appeal
-Legal Issues:
+          <t>1. Case Number: Civil Appeal No. 8940/20
+2. Case Type: Civil
+3. Legal Issues:
 - Validity of appeal against denial of temporary injunction
 - Procedural rules governing appeals of interlocutory decisions
 - Application of Civil Procedure Rules transition provisions
-Summary of Facts:
-- Association of Yeshiva Ohel Yosef appealed against denial of temporary injunction
-- Appeal originated from Tel Aviv-Jaffa District Court decision
+4. Summary of Facts:
+- Association of Yeshiva Ohel Yosef appealed district court's denial of temporary injunction
 - Appellant was excluded as party in district court proceedings
 - Appeal specifically focused on denial of stay of execution
-- Case was initiated before new Civil Procedure Rules took effect
-- Old Civil Procedure Rules (5749-1984) govern the proceedings
-Court Decision:
-- Appeal dismissed along with accompanying requests for interim relief
-- No costs ordered as respondents were not required to respond
-Relevant Laws and Precedents:
+- Case initiated before new Civil Procedure Rules took effect
+- Case governed by Civil Procedure Rules 5749-1984
+5. Court Decision:
+- Appeal dismissed along with requests for interim relief
+- No costs ordered as no response required from respondents
+6. Relevant Laws and Precedents:
 - Civil Procedure Rules, 2018 (Rule 149(4))
 - Civil Procedure Rules, 5749-1984
 - CA 6517/18 Shamsi v. Levin
@@ -4140,22 +4157,21 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1. Case Type:
-Administrative/Procedural
-2. Legal Issues:
+          <t>1. Case Number: 7107/22
+2. Case Type: Administrative
+3. Legal Issues:
 - Request for expedited hearing date
-- Court calendar management
-- Procedural scheduling matter
-3. Summary of Facts:
-- Petitioner "Ploani" requested an earlier hearing date
-- Original hearing was already scheduled
+- Court scheduling and docket management
+4. Summary of Facts:
+- Petitioner "Ploani" requested advancement of scheduled hearing
+- Original hearing was scheduled
 - State submitted response to the request
 - Court found no immediate possibility to advance the hearing
-- Court indicated willingness to expedite if schedule permits
-4. Court Decision:
-Request denied with provision for potential expedition if court calendar allows
-5. Relevant Laws and Precedents:
-Court scheduling and docket management procedures</t>
+- Court indicated potential for expedition if schedule changes occur
+5. Court Decision:
+Request denied with provision for possible advancement if court schedule permits
+6. Relevant Laws and Precedents:
+Supreme Court of Israel procedural regulations regarding hearing scheduling</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4193,19 +4209,23 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Case Type:
-- Criminal Appeal Case
-Legal Issues:
-- Appeal against a District Court criminal judgment
-Summary of Facts:
-- Appellant Hailil Omar challenged a District Court judgment
-- Appeal was heard by a three-justice panel of the Supreme Court
-- Appellant was represented by Attorney Adel Dabah
-- State was represented by Attorney Roni Zloszinsky
-- After court's recommendation, appellant withdrew the appeal
-Court Decision:
-- Appeal dismissed following appellant's withdrawal
-Relevant Laws and Precedents:
+          <t>1. Case Number: 
+- Appeal No. 8361/17
+- Original Criminal Case No. 701-12-16
+2. Case Type:
+- Criminal Appeal
+3. Legal Issues:
+- Appeal against judgment of District Court
+4. Summary of Facts:
+- Appellant Hailil Omar challenged District Court judgment
+- Appeal heard before Supreme Court
+- Attorney Adel Dabah represented appellant
+- Attorney Roni Zloszinsky represented the State
+- Case heard before three-justice panel
+5. Court Decision:
+- Appellant withdrew appeal following Court's recommendation
+- Appeal dismissed
+6. Relevant Laws and Precedents:
 - Supreme Court sitting as criminal appeal court</t>
         </is>
       </c>
@@ -4245,32 +4265,32 @@
       <c r="F69" t="inlineStr">
         <is>
           <t>Here's a structured summary of the legal document:
-1. Case Type:
-- Civil appeal case involving insurance claims and liability
-2. Legal Issues:
-- Insurance liability for damages from break-ins
+1. Case Number: Appeal No. 11628/05
+2. Case Type: Civil Appeal (Insurance Dispute)
+3. Legal Issues:
+- Insurance company's liability for damages from break-ins
 - Interpretation of security requirements in insurance policy
-- Validity of liability limitation clauses in security service contracts
-- Determination of causation between security company's negligence and damages
-3. Summary of Facts:
+- Validity of liability limitation clause in security monitoring agreement
+- Determination of compensation amounts
+4. Summary of Facts:
 - Two break-ins occurred at Meager's warehouse premises
 - Property was insured by Alya Insurance Company
-- Insurance policy required specific security measures including alarm systems
-- Security monitoring was provided by Shomrim monitoring center
-- Dispute arose over whether security requirements were adequately met
-- Questions raised about timing and effectiveness of security response
-4. Court Decision:
-- Upheld lower court's decision holding insurance company liable for damages
+- Insurance policy required specific security measures
+- Dispute centered on whether security measures met policy requirements
+- Security monitoring company's response time was questioned
+- Damages occurred during both break-ins
+5. Court Decision:
+- Upheld lower court's ruling that insurance company was liable for damages
 - Rejected insurance company's appeal
-- Maintained 50% liability for security company
-- Validated limitation clause capping security company's liability
-- Awarded various legal costs to different parties
-5. Relevant Laws and Precedents:
-- Insurance Contract Law, 1981
-- Contracts Tribunal precedent (Gilmor case)
+- Maintained 50% liability for security monitoring company
+- Validated liability limitation clause for security company
+- Awarded costs to various parties
+6. Relevant Laws and Precedents:
+- Insurance Contract Law, 1981 (Section 28a)
+- Gilmor Case (regarding liability limitation clauses)
+- Contracts Tribunal precedents on standard contracts
 - Business Licensing Law, 1968
-- Standards Institution of Israel Law, 1953
-- Uniform Contracts Law</t>
+- Standards Institution of Israel Law, 1953</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -4312,23 +4332,26 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Case Type: Administrative/Civil (Tax Appeal)
-Legal Issues:
-- Land taxation dispute between a private appellant and the Director of Land Taxation
-Summary of Facts:
-- Appeal filed against Director of Land Taxation, Jerusalem
-- Case requires written and oral arguments from both parties
-- Written submissions limited to 12 pages for main arguments
-- Reply submissions limited to 2 pages
-- Specific formatting requirements established for submissions
-- Evidence must be filed separately from argument summaries
-- Three copies of submissions required for court filing
-- Oral arguments to supplement written submissions
-Relevant Laws and Precedents:
+          <t>1. Case Number: Appeal No. 7799/10
+2. Case Type: Civil (Administrative Appeal)
+3. Legal Issues:
+- Land taxation dispute between an individual appellant and the Director of Land Taxation
+4. Summary of Facts:
+- Case involves procedural requirements for written arguments
+- Appellant and respondent must submit written arguments with specific page limits
+- Written submissions must follow formatting requirements (A4 size, 12-point font, double spacing)
+- Evidence files must be submitted separately from summaries
+- Parties must submit three copies to court and serve other parties
+- Oral arguments will follow written submissions
+- Written summaries under Rule 446 are not required
+5. Court Decision:
+- Established procedural guidelines for submission of written and oral arguments
+- Set page limits: 12 pages for appellant and respondent, 2 pages for reply
+- Ordered oral supplementary arguments to follow written submissions
+6. Relevant Laws and Precedents:
 - Rule 448 of the Order of Civil Procedure, 5744-1984
 - Rule 497b of the Code of Civil Procedure, 1984
-- Rule 446 of the Order of Civil Procedure, 5749-1984
-Note: This document appears to be a procedural order setting forth the requirements for submission of arguments rather than a final decision on the merits of the case.</t>
+- Rule 446 of the Order of Civil Procedure, 5749-1984</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -4366,31 +4389,32 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Case Type: Criminal (Extradition Case)
-Legal Issues:
+          <t>1. Case Number: Criminal Appeal No. 2542/19
+2. Case Type: Criminal - Extradition Case
+3. Legal Issues:
 - Validity of extradition request from Germany to Israel
 - Sufficiency of evidence for extradition
 - Question of reciprocity between Germany and Israel in extradition matters
 - Religious/ethnic discrimination concerns in extradition
-Summary of Facts:
-- Appellant and co-conspirator allegedly defrauded German companies of approximately €4 million
-- Fraudulent scheme involved impersonating company executives and requesting wire transfers
-- Multiple companies were targeted through email correspondence and phone calls
-- Funds were transferred to bank accounts in China, Slovakia, and Croatia
-- Appellant was arrested in Israel during an attempted fraud
-- Co-conspirator was previously extradited to Germany and sentenced to five years
-Court Decision:
-- Supreme Court upheld the District Court's decision to extradite
-- Rejected appellant's arguments regarding insufficient evidence
-- Dismissed concerns about anti-Semitism and religious discrimination
-- Confirmed extradition request met all legal requirements
-Relevant Laws and Precedents:
+4. Summary of Facts:
+- Appellant (Jeremy Richard Twill) was involved in fraudulent investment scheme
+- Scheme defrauded German investors of approximately €35 million
+- Multiple fraud attempts against German companies through email impersonation
+- Collaborated with co-conspirator Christophe Kohrne
+- Used fake identities to convince company employees to transfer funds
+- Money was transferred to bank accounts in China and Slovakia
+- Arrested during attempted fraud operation
+- Co-conspirator Kohrne was previously extradited and sentenced to five years
+5. Court Decision:
+Supreme Court upheld the District Court's decision to extradite the appellant to Germany
+6. Relevant Laws and Precedents:
 - Extradition Law, 5714-1954
 - European Convention on Extradition
 - State of Israel v. Rosenstein
 - State of Israel v. Haziza
-- Yagodayev v. The State of Israel
-- Section 1a(a)(1) of the Extradition Law</t>
+- State of Israel v. Lempel
+- European Arrest Warrant provisions
+- Basic Law: Israel - Nation-State of the Jewish People (discussed but deemed irrelevant)</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -4428,22 +4452,23 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Case Type: Civil
-Legal Issues:
-- Return of bank guarantee in a property dispute
-- Estate and inheritance matters
-Summary of Facts:
-- Case involves Jewish National Fund as appellant
-- Multiple respondents including estates of deceased individuals and living parties
-- Bank guarantee was deposited with the court by appellant
+          <t>1. Case Number: 4040/15
+2. Case Type: Civil
+3. Legal Issues:
+- Return of bank guarantee
+- Estate/inheritance matters
+- Property rights
+4. Summary of Facts:
+- Case involves Jewish National Fund and multiple respondents from Zoabi family
+- Matter concerns estates of several deceased individuals
+- Bank guarantee was deposited by appellant with the court
 - Respondent No. 1 consented to return of bank guarantee
-- Multiple estates and inheritance claims are involved
-Court Decision:
-- Court ordered return of bank guarantee to appellant with consent of Respondent No. 1
-Relevant Laws and Precedents:
-- Property law
-- Estate law
-- Administrative procedures regarding bank guarantees</t>
+- Multiple parties involved are estates of deceased individuals
+5. Court Decision:
+Court ordered return of bank guarantee to appellant with consent of Respondent No. 1
+6. Relevant Laws and Precedents:
+- Laws relating to Custodian for Absentee Property
+- Estate administration laws</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4481,21 +4506,20 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Case Type:
-- Administrative/Family Law
+          <t>Case Number: HCJ 9376/00
+Case Type: Administrative
 Legal Issues:
-- Jurisdiction determination for marriage dissolution
-- Application of Marriage Dissolution Law (Special Cases)
+- Determination of jurisdictional authority in marriage dissolution case
+- Application of Marriage Dissolution Law (Special Cases), 1969
 Summary of Facts:
-- Petition filed regarding jurisdiction for marriage dissolution
-- Case involves spouses Orbich Yelena (Petitioner) and Orbich Oleg (Respondent)
+- Petitioner Orbich Yelena filed against respondent Orbich Oleg
+- Case concerns jurisdiction for marriage dissolution
 - Attorney General named as second respondent
-- Matter concerns special cases under Marriage Dissolution Law
+- Matter falls under Special Cases provision of Marriage Dissolution Law
 Court Decision:
-- Family Court in Tel Aviv and Central Districts granted jurisdiction over the marriage dissolution
+Family Court in Tel Aviv and Central Districts granted jurisdiction over the marriage dissolution case
 Relevant Laws and Precedents:
-- Marriage Dissolution Law (Special Cases), 1969
-- Section 1(a) of the Marriage Dissolution Law</t>
+- Marriage Dissolution Law (Special Cases), 1969, Section 1(a)</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4533,25 +4557,26 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>1. Case Type:
-- Civil Appeal Case
-2. Legal Issues:
+          <t>1. Case Number: 1453/09 (Supreme Court Appeal)
+2. Case Type: Civil
+3. Legal Issues:
 - Determination of debt existence between parties
 - Status of lower court judgment's finality
-- Attorney costs allocation
-3. Summary of Facts:
+- Procedural matters regarding future litigation rights
+4. Summary of Facts:
 - Bank Hapoalim Ltd. appealed against Adib Mahoul Investments Ltd. and Advocate Adib Mahoul
-- Case originated from District Court judgment
-- Parties reached agreement regarding non-finality of lower court ruling
-- Question of debt existence remains unresolved
-- Attorney costs issue remains pending
-4. Court Decision:
+- Original judgment issued by District Court in Civil Case 1195/07
+- Parties agreed that District Court judgment would not be considered final
+- Matter concerns potential debt owed by respondents to appellant
+- Question of attorney costs remains unresolved
+5. Court Decision:
 - Appeal partially accepted
-- District Court judgment deemed non-final regarding debt existence
-- Future determination of debt to be made in new lawsuit if filed
+- District Court judgment deemed non-final regarding debt determination
+- Future litigation permitted to determine existence and amount of debt
 - Attorney costs to be determined in future proceedings
-5. Relevant Laws and Precedents:
-- Supreme Court appellate jurisdiction</t>
+6. Relevant Laws and Precedents:
+- Civil Appeals procedure before Supreme Court
+- District Court civil jurisdiction</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4589,29 +4614,30 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Case Type: Criminal Appeal
-Legal Issues:
-- Appeal against severity of sentence for robbery conviction
-- Consideration of juvenile offender status in sentencing
-- Balance between rehabilitation and punitive measures
-Summary of Facts:
+          <t>1. Case Number: Appeal No. 7516/12
+2. Case Type: Criminal Appeal
+3. Legal Issues:
+- Severity of sentence for a juvenile offender
+- Balance between rehabilitation and punishment for young offenders
+- Appropriateness of imprisonment for armed robbery
+4. Summary of Facts:
 - Appellant committed robbery at a post office using a fake gun
 - Appellant was a minor (18 years and 2 weeks) at the time of offense
-- Stole 3,900 NIS while threatening postal worker
-- Immediately arrested and confessed to the crime
+- Stole 3,900 NIS from post office
+- Was arrested shortly after and led police to stolen money
+- No physical violence used during robbery
 - Had difficult family background and history in boarding school
 - Initially refused rehabilitation options
-- No physical violence used during robbery
-- Stolen money was recovered
-Court Decision:
-Appeal dismissed, upholding original sentence of three years imprisonment and one year probation
-Relevant Laws and Precedents:
+- Used psychoactive substances
+- Had subsequent convictions for other offenses
+5. Court Decision:
+Appeal dismissed, original sentence upheld (three years imprisonment and one year probation)
+6. Relevant Laws and Precedents:
 - Section 402(a) of the Penal Law, 1977
 - Youth Law (Judgment, Punishment, and Treatment), 1971
-- CrimA 7113/08 regarding juvenile offender sentencing
+- CrimA 3091/08 Treiger v. State of Israel
 - CrimA 10364/06 Haladi v. State of Israel
-- CrimA 5364/00 Kalbo v. State of Israel
-- Multiple precedents establishing limited appellate intervention in sentencing</t>
+- CrimA 5364/00 Kalbo v. State of Israel</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4649,27 +4675,29 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Case Type:
-- Civil Appeal (Property Law)
-Legal Issues:
-- Claim for prescriptive easement over a common property path
-- Rights of access for synagogue worshippers
+          <t>1. Case Number: Appeal No. 4175/11
+2. Case Type: Civil
+3. Legal Issues:
+- Right to prescriptive easement for access through a common property path
 - Validity of permanent injunction against path usage
-Summary of Facts:
+- Requirements for establishing prescriptive rights under Land Registration Law
+4. Summary of Facts:
 - Synagogue Committee sought declaration of prescriptive easement for access path
 - Property owner filed counterclaim seeking to evict worshippers from path
 - District Court rejected synagogue's claim for prescriptive easement
-- Path usage was divided into two periods: pre-1988 (steep/dangerous) and post-1988
-- Synagogue failed to prove 30 years of continuous path usage
-- Court conducted site inspection and found alternative entrances existed
-- Relationship between respondents was strained, affecting testimony credibility
-Court Decision:
+- Court ordered removal of obstructions on path
+- Dispute centered on duration of path usage (requirement of 30 years)
+- Path underwent renovations affecting its usability
+- Lower court found path was steep and dangerous before renovations
+- Alternative entrances to synagogue existed
+5. Court Decision:
 - Appeal and cross-appeal dismissed
-- Permanent injunction upheld prohibiting synagogue attendees from using path
-- No costs ordered against either party
-Relevant Laws and Precedents:
-- Section 94(a) of the Land Registration Law (requiring 30 years of use for prescriptive easement)
-- Civil Appeal 9308/06 City of Ramat Gan v. Estate of Burshtein</t>
+- Permanent injunction against synagogue attendees' use of path upheld
+- No costs ordered
+6. Relevant Laws and Precedents:
+- Section 94(a) of the Land Registration Law (30-year requirement for prescriptive rights)
+- Civil Appeal 9308/06 City of Ramat Gan v. Estate of Burshtein
+- Legal principles regarding appellate review of factual determinations</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4707,27 +4735,29 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Case Type: Civil (Real Estate/Commercial)
-Legal Issues:
+          <t>1. Case Number: Appeal No. 146/22
+2. Case Type: Civil (Real Estate/Commercial)
+3. Legal Issues:
 - Property sale dispute
+- Validity of settlement agreement
+- Rights to compensation
 - Receivership proceedings
-- Settlement agreement approval
-- Compensation rights
-Summary of Facts:
-- Group Namer Real Estate appealed against multiple respondents including a receiver
-- Case involves property sale and settlement agreement
-- Original District Court judgment denied appellant compensation
-- Settlement agreement was deemed beneficial for all parties
-- Appellant's company won property rights
-- Purchase price set at NIS 13,500,000 plus VAT
-Court Decision:
+4. Summary of Facts:
+- Group Namer Real Estate appealed against a District Court judgment
+- Case involves multiple parties including receivers and trustees
+- Settlement agreement was presented for court approval
+- Property sale valued at NIS 13,500,000 plus VAT
+- Original District Court denied compensation to appellant
+- Multiple temporary orders were issued during proceedings
+5. Court Decision:
 - Settlement agreement approved
-- District Court's denial of compensation rights cancelled
 - Appellant declared winner of property
 - Respondent authorized to sign sale agreement
+- District Court's denial of compensation reversed
 - Previous temporary orders cancelled
-Relevant Laws and Precedents:
-- Debt Restructuring and Economic Rehabilitation regulations</t>
+6. Relevant Laws and Precedents:
+- Debt Restructuring and Economic Rehabilitation regulations
+- Commercial property sale regulations</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4765,28 +4795,30 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Case Type:
-- Criminal Appeal Case
-Legal Issues:
+          <t>1. Case Number: 97/967
+2. Case Type: Criminal Appeal
+3. Legal Issues:
 - Appeal against sentencing for multiple criminal offenses
-- Appropriateness of imprisonment duration and compensation
-Summary of Facts:
+- Appropriateness of imprisonment duration
+- Activation of suspended sentence
+4. Summary of Facts:
 - Appellant was convicted of aggravated assault
 - Additional charges included carrying a knife without authorization
-- Charged with impersonating another person
-- Charged with obstructing a police officer
-- Offense was committed while under suspended sentence
-- Original sentence included 48 months imprisonment (36 months actual time)
-- Compensation of NIS 7,000 ordered to victim
-- Probation officer provided no therapeutic alternatives
-Court Decision:
+- Impersonation of another person
+- Obstruction of police officer duties
+- Original sentence: 48 months imprisonment (36 months actual time)
+- Additional suspended sentence activated (2 months cumulative, 3 months overlapping)
+- Compensation order of NIS 7,000 to victim
+- Offense committed while under suspended sentence
+- Probation report provided no therapeutic alternatives
+5. Court Decision:
 - Appeal dismissed
 - Original sentence maintained
 - Court found punishment appropriate and not severe enough to warrant intervention
-Relevant Laws and Precedents:
-- Criminal statutes regarding aggravated assault
-- Laws concerning weapon possession
-- Regulations regarding impersonation
+6. Relevant Laws and Precedents:
+- Criminal laws regarding aggravated assault
+- Regulations concerning unauthorized weapon possession
+- Laws regarding impersonation
 - Laws concerning obstruction of police duties</t>
         </is>
       </c>
@@ -4825,27 +4857,29 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Case Type: Civil Appeal
-Legal Issues:
+          <t>1. Case Number: Appeal No. 1134/14
+2. Case Type: Civil Appeal
+3. Legal Issues:
 - Compensation distribution to households
-- Handling of unclaimed compensation funds
-- Attorney fees and rewards determination
-Summary of Facts:
+- Handling of unclaimed compensation
+- Attorney fees and rewards
+4. Summary of Facts:
 - 1015 households were eligible for initial compensation
 - 696 households with up to 4 people to receive additional NIS 250
 - 319 households with more than 4 people to receive additional NIS 750
 - Total additional compensation amounts to NIS 413,250
-- Approximately 80 families did not claim original compensation
+- Approximately 80 families did not collect initial compensation
 - Unclaimed funds to be donated to non-profit organizations
 - Payments to be initiated within 30 days
-- Original compensation has been paid except for unclaimed amounts
-Court Decision:
+- Uncollected additional compensation may be donated to similar organizations
+5. Court Decision:
 - Court approved settlement agreement for additional compensation
-- Authorized transfer of unclaimed funds to appellant's representatives for charitable donation
-- Parties required to submit arguments regarding attorney fees
+- Authorized transfer of unclaimed funds to appellant's representatives
+- Pending decision on attorney fees and rewards
 - No costs ordered for the appeal
-Relevant Laws and Precedents:
-- Lower court judgment regarding unclaimed compensation distribution</t>
+6. Relevant Laws and Precedents:
+- Lower court judgment regarding initial compensation distribution
+- Lower court approval for donation of unclaimed funds</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4883,30 +4917,31 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Case Type:
-Criminal Appeal
-Legal Issues:
-- Admissibility of witness testimony under Section 10A of the Evidence Ordinance
+          <t>1. Case Number: 4890/98
+2. Case Type: Criminal Appeal
+3. Legal Issues:
+- Admissibility of police statements under Section 10A of Evidence Ordinance
 - Sufficiency of evidence for conviction
-- Appropriateness of sentence length
-- Validity of reconciliation agreement as evidence
-Summary of Facts:
-- Appellant was convicted of kidnapping, aggravated assault, and conspiracy
-- Appellant and accomplices kidnapped complainant in appellant's car
-- Victim was sprayed with tear gas, blindfolded, and restrained
-- Perpetrators severely beat the victim causing serious injuries
-- Motive involved alleged pursuit of appellant's wife by victim
+- Appropriateness of sentence
+4. Summary of Facts:
+- Appellant and accomplices kidnapped complainant
+- Victim was taken in appellant's car
+- Perpetrators used tear gas on victim
+- Victim was blindfolded and restrained
+- Victim was severely beaten
+- Motive involved appellant's wife
 - Conviction based primarily on testimony from Waleed and complainant
-- Original sentence: 30 months imprisonment (minus 12 days) plus 18 months probation
-Court Decision:
+- Original sentence: 30 months imprisonment (minus 12 days) and 18 months probation
+5. Court Decision:
 - Appeal dismissed
 - Original conviction upheld
 - Original sentence maintained
-Relevant Laws and Precedents:
+6. Relevant Laws and Precedents:
 - Section 10A of the Evidence Ordinance
-- Criminal statutes regarding kidnapping
-- Criminal statutes regarding aggravated assault
-- Criminal statutes regarding conspiracy</t>
+- Criminal charges:
+  - Kidnapping with intent to cause grievous bodily harm
+  - Aggravated assault
+  - Conspiracy to commit a crime</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -4944,24 +4979,26 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Case Type:
-Civil case (Probate/Inheritance matter)
-Legal Issues:
-- Jurisdiction dispute between Rabbinical Court and Family Court
+          <t>1. Case Number: 4540/02
+2. Case Type: Administrative/Constitutional
+3. Legal Issues:
+- Jurisdiction dispute between religious and civil courts
 - Validity of probate order
-- Authority to determine will validity
-Summary of Facts:
-- Petitioner Halili challenged a Rabbinical Court probate order
-- Multiple respondents including Rabbinical Supreme Court and Mrs. Darshani
-- Parties reached a mutual agreement during proceedings
-- Case involved dispute over jurisdiction for will validation
-- Agreement allows case to proceed in Family Court
+- Authority to challenge religious court decisions
+4. Summary of Facts:
+- Petitioner Halili filed against Rabbinical Courts and Mrs. Darshani
+- Case involves dispute over probate order
+- Parties reached mutual agreement to transfer case
+- Original probate order issued by Rabbinical District Court
+- Parties agreed to continue litigation in Family Court
 - Conditional provision for return to Rabbinical Court if will approval fails
-Court Decision:
-High Court accepted the parties' agreement, nullified the Rabbinical Court's probate order, and transferred the case to Family Court
-Relevant Laws and Precedents:
-- HCJ 673/89 Meshulam v. The Rabbinical Supreme Court (establishing limits on High Court intervention in religious court decisions)
-- Legal principle: High Court will only intervene in religious court decisions when fundamental rights are violated or public policy is at issue</t>
+5. Court Decision:
+- High Court accepted parties' agreement
+- Nullified probate order from Rabbinical District Court
+- Transferred case to Family Court
+6. Relevant Laws and Precedents:
+- HCJ 673/89 Meshulam v. The Rabbinical Supreme Court (594)
+- Precedent limiting High Court intervention in religious court decisions except for fundamental rights violations or public policy issues</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4999,33 +5036,36 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Case Analysis:
-1. Case Type:
-- Civil case involving contract law, property law, and professional liability
-2. Legal Issues:
-- Validity of land purchase agreement
+          <t>Here's a structured summary of the legal document:
+1. Case Number: 
+- Appeal No. 10362/03
+- Appeal No. 638/04
+2. Case Type:
+- Civil appeals case heard at the Supreme Court
+3. Legal Issues:
+- Contract validity and breach
 - Personal liability of corporate officers
-- Professional liability of attorneys
-- Duty of care in real estate transactions
-- Good faith obligations in contract performance
-3. Summary of Facts:
+- Attorney's duty of care to opposing parties
+- Land registration and property rights
+- Fraudulent misrepresentation claims
+4. Summary of Facts:
 - Barazani Company purchased unregistered land and later sold rights to Ben Rahamim Company
-- The land could not be registered as initially planned
+- The land was never properly registered
+- Ben Rahamim paid 1,478,775 NIS for their portion
 - Barazani failed to complete first registration of the land
-- Ben Rahamim paid significant amounts for the purchase
-- Multiple parties were involved in subsequent transactions
-- The actual existence/size of the land became disputed
-4. Court Decision:
+- Multiple subsequent transactions were made regarding the same land
+- Questions arose about the actual existence of the land as described in contracts
+5. Court Decision:
 - Contract between Barazani and Ben Rahamim was voided
 - Barazani Company ordered to return payments received
 - Case remanded regarding Abraham Barazani's personal liability
-- Attorney Geva found not liable to Ben Rahamim
-- Third-party notice against Attorney Geva dismissed
-5. Relevant Laws and Precedents:
-- Contracts Law (Good Faith Obligation, Section 39)
-- Torts Ordinance (Section 56 regarding fraud)
-- Cukor v. Car Security Ltd. case (regarding corporate veil)
-- Legal precedents regarding attorney's duty of care to non-clients</t>
+- Claims against Attorney Geva dismissed
+- Appeals rejected except for Abraham Barazani's personal liability issue
+6. Relevant Laws and Precedents:
+- Contracts Law Section 39 (Good Faith obligation)
+- Torts Ordinance Section 56 (Fraud)
+- Cukor v. Car Security Ltd. case (Corporate veil and personal liability)
+- Supreme Court precedents regarding attorney duty of care to non-clients</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5067,32 +5107,35 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Case Type: Criminal Appeal
-Legal Issues:
-- Severity of sentences for group robbery
-- Differentiation of sentences among co-defendants
-- Appropriateness of suspended sentences and payment terms
-- Weight of probation service recommendations
-Summary of Facts:
-- Three defendants participated in an armed robbery at a gas station
+          <t>1. Case Number: 
+- Appeal No. 4182/10 and Appeal No. 4249/10
+2. Case Type:
+- Criminal Appeal
+3. Legal Issues:
+- Severity of sentences for robbery with aggravating circumstances
+- Appropriateness of equal punishment for co-defendants with different roles
+- Consideration of probation service recommendations
+- Terms of suspended sentences and payment schedules
+4. Summary of Facts:
+- Three defendants committed an armed robbery at a gas station
 - Defendants entered with covered faces and wooden planks
-- One victim was struck and injured during the robbery
+- One defendant struck the victim with a wooden plank
 - 120 shekels were stolen from the cash register
 - Defendants were young adults with no prior criminal record
 - All defendants admitted guilt and expressed remorse
-- Different levels of participation were noted among defendants
+- Victim suffered serious injuries
 - Probation service recommended community service
-Court Decision:
+5. Court Decision:
 - Appeals partially accepted
-- Original prison sentences of 33 months maintained
+- Original 33-month imprisonment maintained
 - Suspended sentence reduced to 15 months
-- Fine payment date postponed until after prison release
-- Compensation payment schedule unchanged
-Relevant Laws and Precedents:
+- Fine payment postponed until after prison release
+- Compensation payment schedule maintained
+6. Relevant Laws and Precedents:
 - Sections 402(b) and 29 of the Penal Law, 5737-1977
 - Public Prosecution 1242/97 Greenberg v. State of Israel
-- Section 29(b) of the Penal Law regarding joint action
-- Multiple precedents regarding group robbery sentencing guidelines</t>
+- A.P. 3069/05 State of Israel v. Oran Abutbul
+- Section 29(b) of the Penal Law</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -5130,27 +5173,27 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Case Type: Criminal Appeal
-Legal Issues:
+          <t>1. Case Number: 6858/97
+2. Case Type: Criminal Appeal
+3. Legal Issues:
 - Appeal against sentencing
 - Consideration of rehabilitation potential
-- Conversion of imprisonment to community service
-Summary of Facts:
-- Appellant Jacob Karsafi appealed against District Court sentence
+- Appropriateness of community service as alternative punishment
+4. Summary of Facts:
+- Original sentence issued by Tel Aviv-Yafo District Court
 - Appellant completed military service satisfactorily
 - Appellant has prior criminal record
-- Probation Service submitted positive report
-- Original sentence deemed not unduly harsh
-- Special circumstances warranted sentence modification
-Court Decision:
+- Probation Service provided positive rehabilitation report
+- Case involved serious conduct (specifics not detailed)
+5. Court Decision:
 - Appeal partially upheld
 - Prison sentence reduced to six months
 - Sentence to be served through community service
 - One-year probation period imposed
 - Director of Community Service to submit implementation plan
-Relevant Laws and Precedents:
-- Criminal sentencing guidelines
-- Community service provisions</t>
+6. Relevant Laws and Precedents:
+- Laws regarding community service as alternative sentencing
+- Criminal sentencing guidelines</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -5188,18 +5231,20 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Case Type: Administrative Appeal
-Legal Issues:
-- Appeal regarding Land Registry matters
-Summary of Facts:
-- Appeal filed by Ezra Tzabari against the Land Registry Officer and multiple respondents
-- Case involved land registry dispute
+          <t>1. Case Number: Appeal No. 4778/13
+2. Case Type: Administrative Appeal
+3. Legal Issues:
+- Land Registry dispute
+- Appeal against Land Registry Officer's decision
+4. Summary of Facts:
+- Appellant Ezra Tzabari filed appeal against Land Registry Officer
+- Multiple respondents including State of Israel and private parties
+- Appeal involved Land Registry matters
 - Appellant voluntarily withdrew the appeal
-- Deposit to be returned pending confirmation of no legal impediments
-Court Decision:
+5. Court Decision:
 - Appeal withdrawn as requested by appellant
 - Court ordered return of deposit subject to verification of no legal impediments
-Relevant Laws and Precedents:
+6. Relevant Laws and Precedents:
 - Land Registry regulations</t>
         </is>
       </c>
@@ -5238,17 +5283,16 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Case Type:
-- Civil Appeal
-Legal Issues:
-- Procedural matter regarding time extension for filing response
-Summary of Facts:
-- State of Israel - Land Authority is the appellant
-- Laila Tabar and others are the respondents
+          <t>1. Case Number: 6744/20
+2. Case Type: Civil Appeal
+3. Legal Issues:
+- Procedural matter regarding extension of time for filing response
+4. Summary of Facts:
+- Case between State of Israel Land Authority (Appellant) and Laila Tabar et al. (Respondents)
 - Respondents requested extension for filing response
-- Both parties agreed to the extension request
-Court Decision:
-- Court granted the time extension for respondents to file their response</t>
+- Parties reached agreement on extension request
+5. Court Decision:
+- Extension granted for respondents to file response</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -5286,22 +5330,24 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Case Type: Civil Appeal
-Legal Issues:
-- Procedural matter regarding filing requirements and responses in a healthcare-related appeal
-- Case involves health services and governmental healthcare administration
-Summary of Facts:
-- Appeal filed against Clalit Health Services and Ministry of Health
+          <t>1. Case Number: Appeal No. 6546/22
+2. Case Type: Civil
+3. Legal Issues:
+- Appeal against Clalit Health Services and Ministry of Health
+- Procedural requirements for written responses
+- Compliance with Civil Procedure Rules 5789-2018
+4. Summary of Facts:
+- Anonymous appellant filed appeal against Clalit Health Services and State of Israel
 - Case requires written responses from respondents
-- Respondents must comply with Civil Procedure Rules 138(a)(2) and 140(a)(2)
-- Respondents may opt out by written notification within 60 days
-- Paper copies of court decisions not required unless officially published
-- Non-response equates to non-appearance in proceedings
-Court Decision:
-- Procedural ruling ordering respondents to file written responses
-- Set hearing date and established response requirements
-- Established guidelines for document submission and opt-out procedures
-Relevant Laws and Precedents:
+- Respondents must comply with Rules 140(a)(1) and 140(a)(2)
+- Respondents not interested in participating must notify within 60 days
+- Paper copies of judgments not required unless officially published
+- Failure to respond equates to non-appearance
+5. Court Decision:
+- Procedural order requiring respondents to file written responses
+- Hearing scheduled
+- Respondents given option to declare non-participation
+6. Relevant Laws and Precedents:
 - Civil Procedure Rules, 5789-2018
 - Rule 138(a)(2)
 - Rules 140(a)(1) and 140(a)(2)</t>
@@ -5342,31 +5388,33 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Case Type: Administrative Tax Appeals
-Legal Issues:
-1. Whether employers must pay foreign worker levy for employing Eritrean and Sudanese workers with temporary residence permits
-2. Whether these workers are eligible for tax credits under Israeli tax law
-3. Interpretation of "resident" status and "permitted by law" employment for tax purposes
-Summary of Facts:
+          <t>Here's a structured summary of the legal document:
+1. Case Number: Multiple consolidated cases (4946/16, 6952/16, 8249/16, 9810/16, 9812/16, 9814/16, 9842/16, 9843/16, 9922/16, and 982/17)
+2. Case Type: Tax Appeals (Administrative/Civil)
+3. Legal Issues:
+- Applicability of foreign worker levy to employers of Eritrean and Sudanese workers
+- Eligibility of these workers for tax credits
+- Interpretation of "resident" status under tax law
+- Legal status of non-enforcement policy regarding employment
+4. Summary of Facts:
 - Multiple employers hired Eritrean and Sudanese workers with temporary residence permits
-- Tax authorities imposed foreign worker levy on employers and denied tax credits to workers
-- Government has policy of non-enforcement regarding employment of these workers
-- Workers have temporary protection from deportation but are not officially recognized as refugees
-- Cases involve various industries including hotels, cleaning services, and restaurants
-Court Decision:
+- Tax authorities imposed foreign worker levy on employers
+- Workers were denied tax credits
+- Government maintained non-enforcement policy regarding employment of these workers
+- Cases involved various industries including hotels, cleaning services, and restaurants
+- Tax assessments covered multiple years between 2008-2013
+5. Court Decision:
 The Supreme Court considered:
-- Maintaining the foreign worker levy requirement for employers
-- Allowing tax credits for workers on a provisional basis, subject to conditions:
-  - Proof that workers actually received the credits
-  - Workers cannot have permits prohibiting work
-  - Not applicable to those ordered to stay at Holot Detention Center
-Relevant Laws:
-1. Economic Stabilization Law
-2. Income Tax Ordinance
-3. Entry into Israel Law
-4. Foreign Workers Law
-5. Income Tax Regulations (Tax Credits for Eligible Foreign Residents)
-6. Convention Relating to the Status of Refugees (1951)</t>
+- Maintaining the foreign worker levy requirement
+- Allowing tax credits for workers under specific conditions
+- Recognizing unique status of these workers while not classifying them as refugees
+6. Relevant Laws and Precedents:
+- Economic Stabilization Law
+- Income Tax Ordinance
+- Entry into Israel Law
+- Foreign Workers Law
+- Income Tax Regulations (Tax Credits for Eligible Foreign Resident)
+- Convention Relating to the Status of Refugees (1951)</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -5408,26 +5456,26 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Case Type:
-Criminal case
-Legal Issues:
-- Extension of pre-trial detention beyond statutory nine-month period
-- Balance between defendant's rights and public safety
-- Pace of trial proceedings
-Summary of Facts:
+          <t>1. Case Number: 4918/01
+2. Case Type: Criminal
+3. Legal Issues:
+- Extension of detention beyond statutory nine-month period
+- Balance between expedient trial proceedings and public safety
+- Application of Criminal Procedure Law detention provisions
+4. Summary of Facts:
 - Defendant charged with murder, grievous bodily harm, and unlawful firearm possession
-- Charges stem from a business dispute resulting in fatal stabbing
+- Case involves fatal stabbing over business dispute
+- Initial detention order granted until end of trial proceedings
 - Six hearings held with multiple witness testimonies
-- State requested 90-day extension of detention
-- Defendant has prior violent offenses and prison record
+- State requested 90-day extension after initial nine-month detention period
+- Defendant has previous violent offenses and prison record
 - Trial proceedings deemed slower than legislatively intended
-- Only six hearings conducted since trial commencement
-Court Decision:
-Detention extended for additional 90 days due to public safety concerns and severity of charges
-Relevant Laws and Precedents:
-- Criminal Procedure Law (Law Enforcement Powers and Detention), Section 61
-- Criminal Procedure Law (Law Enforcement Powers and Detention), Section 62
-- Criminal Procedure (Investigation Powers) Law, 5756-1996</t>
+5. Court Decision:
+Detention extended for additional 90 days due to public safety concerns
+6. Relevant Laws and Precedents:
+- Section 61 of Criminal Procedure Law (Investigation Powers) 5756-1996
+- Section 62 of Criminal Procedure Law (Law Enforcement Powers and Detention)
+- Criminal Procedure Law provisions regarding detention time limits</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -5465,27 +5513,28 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Case Type:
-Criminal case with administrative elements (Planning and Building Law violations)
+          <t>Case Number: 9821-02-14
+Case Type: Criminal Appeal
 Legal Issues:
-- Validity of stay of execution orders
-- Unauthorized construction and land use without permits
-- Enforcement of demolition orders
-- Balance between public interest and economic impact
+- Validity of demolition and cessation orders
+- Stay of execution for building code violations
+- Interpretation of previous court decisions regarding stay orders
+- Land use without proper permits
 Summary of Facts:
 - Appellant holds lease rights on land and constructed buildings without proper permits
-- Multiple structures were built beyond permitted scope
-- Appellant was charged with violations of Planning and Building Law
-- Property currently houses businesses employing approximately 140 workers
-- Previous stay of execution orders were granted during earlier appeals
-- Case involves multiple appeals and court decisions over several years
-- Appellant submitted request for zoning change which was denied
+- Initial charges involved violations of Planning and Building Law
+- Structures were built beyond permitted scope
+- Appellant's request to change zoning was denied
+- Case involved multiple indictments and appeals
+- Approximately 100-140 employees work at the disputed property
+- Commercial use of land continues despite violations
+- Previous stay orders were granted during earlier appeals
 Court Decision:
 Appeal accepted; demolition orders and cessation of use orders stayed until final decision in Criminal Appeal No. 9821-02-14
 Relevant Laws and Precedents:
-- Planning and Building Law Sections 204, 208, and 253
-- Criminal Procedure Law Section 213
-- Plan Mish/46 (zoning regulations)</t>
+- Planning and Building Law (Sections 204, 208, and 253)
+- Criminal Procedure Law (Consolidated Version), Section 213
+- Plan Mish/46 (zoning regulation)</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -5523,12 +5572,16 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Case Type:
-Administrative - Court scheduling matter
+          <t>Case Number: 4006/02
+Case Type: Administrative
 Legal Issues:
-Request for hearing postponement
+- Procedural matter regarding scheduling of court hearing
+Summary of Facts:
+- Petitioner Salman Abu Hamad filed against State of Israel
+- Request submitted for postponement of hearing
+- Matter before Justice E. Grunis in Supreme Court of Israel
 Court Decision:
-Hearing postponed to 2 PM as requested</t>
+- Hearing postponed to 2 PM as requested</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -5566,26 +5619,23 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1. Case Type
-- Civil case (Supreme Court appeal for civil matters)
-2. Legal Issues
-- Determination of compensation for protected tenants' rights in a property
-- Binding nature of expert appraiser's opinion
-- Validity of District Court's adoption of expert opinion
-3. Summary of Facts
+          <t>1. Case Number: Appeal No. 5727/98
+2. Case Type: Civil Appeal
+3. Legal Issues:
+- Determination of compensation for protected tenants' rights in property
+- Binding nature of agreed-upon expert appraisal
+4. Summary of Facts:
 - Appellants were protected tenants in a property
-- Parties agreed to be bound by an expert appraiser's opinion
-- District Court adopted the expert appraiser's valuation
-- District Court issued judgment based on agreed expert opinion
-- Appellants challenged the District Court's decision
-- Appeal filed against compensation amount determination
-4. Court Decision
+- Parties agreed to appoint an expert appraiser
+- Parties agreed the appraiser's opinion would be binding
+- District Court adopted the appraiser's opinion
+- Appellants challenged the District Court's judgment
+- District Court ruled based on expert's determination
+5. Court Decision:
 - Appeal dismissed
 - Appellants ordered to pay NIS 5,000 in expenses to Respondents
-- Supreme Court upheld District Court's judgment
-5. Relevant Laws and Precedents
-- Protected Tenancy rights regulations (implied)
-- Contract law principles regarding binding agreements between parties</t>
+6. Relevant Laws and Precedents:
+- Protected Tenancy laws (implied by context)</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -5623,24 +5673,24 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Case Type: Civil Appeal
-Legal Issues:
-- Planning and building permit dispute
-- Administrative decision review
+          <t>1. Case Number: Appeal No. 2099/98
+2. Case Type: Civil Appeal
+3. Legal Issues:
+- Planning and building committee decisions
 - Land use and open areas preservation
-Summary of Facts:
-- Multiple appellants filed an appeal against District Planning and Building Committee
-- Case originated from a Haifa District Court judgment
-- Committee's previous decision contained an error regarding visibility
-- Committee's current decision focused on protecting open areas
-- Maatz report provided factual basis for the Committee's decision
-Court Decision:
+- Administrative discretion in planning decisions
+4. Summary of Facts:
+- Multiple appellants challenged a District Planning and Building Committee decision
+- Original case was heard in Haifa District Court
+- Committee initially made an error regarding visibility assessment
+- Committee later based decision on preservation of open areas
+- Maatz report provided factual basis for committee's decision
+5. Court Decision:
 - Appeal dismissed
-- Court upheld the Committee's decision to protect open areas
+- Court upheld the Committee's decision
 - Found no grounds for judicial intervention
-Relevant Laws and Precedents:
-- Planning and Building Law (implied by context)
-- Administrative law principles regarding judicial review of committee decisions</t>
+6. Relevant Laws and Precedents:
+- Planning and Building Law (implied through context)</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -5678,29 +5728,31 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Case Type:
-Administrative tax law case (Appeal against Tax Authority decision)
-Legal Issues:
-- Whether negative invoices issued by the appellant constitute legitimate commercial discounts
-- Authority of Tax Authority to intervene in transaction pricing
-- Proper interpretation of Value Added Tax (VAT) regulations regarding price reductions
-Summary of Facts:
+          <t>1. Case Number: CA 6722/99
+2. Case Type: Administrative/Tax Law Appeal
+3. Legal Issues:
+- Validity of negative invoices as commercial discounts
+- Tax authority's power to intervene in transaction pricing
+- Proper reporting of VAT transactions
+4. Summary of Facts:
 - Appellant is a partnership between Hof HaCarmel Regional Council and Economic Development Company
-- Appellant issued negative invoices as "turnover discounts" to specific customers
+- Company issued negative invoices as "turnover discounts" to specific clients
 - Discounts were fixed percentages (10% for settlements, 6% for regional council)
 - These discounts converted company profits into losses consistently
 - Discounts were not mentioned in original contracts
-- Appellant provided multiple contradictory explanations for the discount system
-Court Decision:
-Supreme Court upheld the lower court's ruling that:
+- Tax Authority disqualified these negative invoices
+- Appellant provided three different explanations for the discounts: efficiency, incentive, and price correction
+5. Court Decision:
+- Appeal dismissed
+- Court upheld Tax Authority's assessment
 - Negative invoices were not legitimate commercial discounts
-- Tax Authority's assessment based on original contract prices was valid
-- Appeal was dismissed with costs awarded to respondent
-Relevant Laws and Precedents:
-- Value Added Tax Law Section 7 (Transaction pricing)
-- Value Added Tax Law Section 77 (Authority for tax assessment)
-- Value Added Tax Law Section 10 (Special relationships provision)
-- Case precedent: Director General of Value Added Tax Tel Aviv v. Mishkenot (economic reality principle in tax law)</t>
+- Reports were deemed incomplete and incorrect
+- Appellant ordered to pay attorney fees of 15,000
+6. Relevant Laws and Precedents:
+- Value Added Tax Law Section 7 (Transaction Price Definition)
+- Value Added Tax Law Section 77 (Tax Authority Assessment Powers)
+- Value Added Tax Law Section 10 (Special Relationships)
+- Price Law Section 7</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -5738,30 +5790,30 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Case Type:
-Criminal Appeal
-Legal Issues:
+          <t>1. Case Number: Appeal No. 5229/20
+2. Case Type: Criminal Appeal
+3. Legal Issues:
 - Appropriateness of imprisonment sentence for assault
 - Consideration of rehabilitation progress in sentence modification
 - Balance between punishment and rehabilitation
-Summary of Facts:
-- Defendant pleaded guilty to assault against person and property
+4. Summary of Facts:
+- Defendant Alaa Khateeb pleaded guilty to assault against person and property
 - Original sentence was 16 months imprisonment
 - Defendant had no prior criminal record
 - Defendant showed positive progress in rehabilitation
-- Victim no longer suffered physical harm
-- Victim voluntarily expressed no desire for harsh punishment
-- Multiple positive probation reports were submitted
-- Defendant demonstrated consistent rehabilitation progress
-Court Decision:
+- Victim no longer suffers physical harm
+- Victim voluntarily expressed no desire for harsher punishment
+- Probation service provided multiple positive reports
+- State attorney did not object to additional probation assessment
+5. Court Decision:
 - Appeal accepted
 - Original 16-month prison sentence modified to 9 months of community service
 - Suspended sentence maintained
 - One-year probation period imposed
-Relevant Laws and Precedents:
+6. Relevant Laws and Precedents:
 - Israeli criminal sentencing guidelines
-- Legal principles balancing punishment and rehabilitation
-- Court's discretionary power to modify sentences based on rehabilitation progress</t>
+- Rehabilitation considerations in sentencing modifications
+- Community service provisions</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -5799,36 +5851,34 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Here's a structured analysis of the legal document:
-1. Case Type:
-- Criminal case (Appeal of conviction)
-- Financial fraud/white-collar crime
-2. Legal Issues:
-- Appeal against severity of sentence for Ponzi scheme fraud
-- Application of Amendment 113 to the Penal Law
-- Classification of multiple offenses as single or separate events
+          <t>Here's the structured legal analysis:
+1. Case Number: 5668/13
+2. Case Type: Criminal Appeal
+3. Legal Issues:
+- Appeal against sentencing in a large-scale financial fraud case
+- Application of Amendment 113 to the Penal Law regarding sentencing guidelines
+- Classification of multiple offenses as single or multiple events
 - Appropriateness of fines and imprisonment terms
-3. Summary of Facts:
-- Defendant operated a fraudulent investment scheme (Ponzi scheme)
+4. Summary of Facts:
+- Defendant operated a Ponzi scheme as a licensed stockbroker
 - Defrauded 84 investors of approximately 47.6 million shekels
-- Promised high returns on foreign currency investments
-- Used new investors' money to pay earlier investors
-- Maintained fraud through forged documents and false representations
-- Used funds for personal luxury lifestyle
-- Operated scheme over multiple years
-4. Court Decision:
-- Original sentence upheld: 12 years imprisonment
-- Additional penalties maintained:
-  - 18 months probation
-  - 300,000 NIS fine or 9 months imprisonment
-  - Compensation to victims
-5. Relevant Laws and Precedents:
+- Promised high returns on investments but used money for personal expenses
+- Created false documents and forged investment reports
+- Conducted fraud over multiple years through a sophisticated scheme
+- Used victims' money to fund luxurious lifestyle and make partial payments to earlier investors
+5. Court Decision:
+- Appeal dismissed
+- Original sentence upheld:
+  * 12 years imprisonment
+  * 18 months probation
+  * 300,000 NIS fine or 9 months imprisonment in lieu
+  * Compensation ordered to complainants
+6. Relevant Laws and Precedents:
 - Amendment 113 to the Penal Law
 - Section 40y"g" regarding multiple offenses
-- Hafetz case (primary precedent)
-- Jaber v. State of Israel case
-- Section 40g(a) of the Penal Law
-- Sections 61, 63(a) and 63(b) of the Penal Law regarding fines</t>
+- Jaber v. State of Israel case law regarding event classification
+- Chafetz case (used as sentencing benchmark)
+- Penal Law Sections 61, 63(a) and 63(b) regarding fines</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -5870,20 +5920,18 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Case Type:
-- Administrative Appeal Case
-Legal Issues:
-- Procedural matter regarding legal representation and case continuation
-Summary of Facts:
+          <t>1. Case Number: Appeal No. 774/03, Appeal No. 713/03
+2. Case Type: Administrative Appeal
+3. Legal Issues:
+- Procedural matter regarding case representation and continuation of proceedings
+4. Summary of Facts:
 - Appellant Esther Cohen filed appeals against the State of Israel
-- Multiple appeal numbers involved (774/03 and 713/03)
 - Advocates Asakandar and Habib Allah are involved in representation
-- Case is pending update on representation status
-Court Decision:
-- Interim procedural decision requiring attorneys to provide update within 10 days regarding:
-  - Continuation of proceedings
-  - Representation status of appellant
-- Final decision pending receipt of requested updates</t>
+- Court requires update on representation status and case continuation
+- Matter is pending before Supreme Court Registrar Oded Shaham
+5. Court Decision:
+- Interim procedural decision requiring attorneys to provide status update within 10 days
+- Final decision on case handling to be determined after receiving the update</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -5921,23 +5969,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>1. Case Type:
-- Civil Appeal
-2. Legal Issues:
-- Appeal against State Water Authority decision
-- Settlement agreement validity
-3. Summary of Facts:
-- Appeal filed by Emek Harod Agricultural Cooperative Association Ltd.
-- Case originated from District Court decision
-- Parties reached a settlement agreement
-- Agreement submitted as Annex "A" to joint notice
-- Three-judge panel presided over the case
-- Each party agreed to bear own costs
-4. Court Decision:
-- Court approved and gave legal effect to the settlement agreement
-- Appeal resolved through mutual settlement
-5. Relevant Laws and Precedents:
-- Water Authority regulations (implied by context)</t>
+          <t>1. Case Number: 6873/19
+2. Case Type: Civil Appeal
+3. Legal Issues:
+- Dispute between Agricultural Cooperative Association and State Water Authority
+4. Summary of Facts:
+- Appeal filed against Haifa District Court decision
+- Three Supreme Court justices presided over the case
+- Original case involved Emek Harod Agricultural Cooperative Association
+- Dispute with State Water Authority
+- Parties reached settlement agreement
+- Settlement submitted as Annex "A"
+5. Court Decision:
+- Court approved and gave legal effect to settlement agreement
+- Each party to bear own costs
+6. Relevant Laws and Precedents:
+- Original District Court case reference: 9691-07-16</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -5975,24 +6022,23 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Case Type:
-- Criminal Appeals Case
-Legal Issues:
+          <t>1. Case Number: 3238/16 - Z'
+2. Case Type: Criminal Appeal
+3. Legal Issues:
 - Conversion of prison sentence to community service
-Summary of Facts:
-- Appellant Elina Meller appealed against the State of Israel
-- Case was heard at the Supreme Court of Israel
-- Director of Service Work provided an updated opinion
-- Sentence was modified to community service
-- Community service duration set for three months
-- Appellant required to report to Director of Community Service
-- Case decided by a panel of three justices
-Court Decision:
-- Court ordered imprisonment sentence to be served as community service
-- Three-month community service term
-- Appellant required to report to Prison Service for registration and placement
-Relevant Laws and Precedents:
-- Provisions for community service under Israel Prison Service regulations</t>
+4. Summary of Facts:
+- Appellant Elina Meller appealed against State of Israel
+- Court reviewed judgment and updated opinion from Director of Service Work
+- Sentence modification from imprisonment to community service was granted
+- Three-month service period ordered
+- Appellant required to report to Director of Community Service at Central District Unit
+- Case decided by panel of three justices
+5. Court Decision:
+- Appellant's prison sentence converted to three months of community service
+- Service to be performed under conditions specified in Director's opinion
+- Appellant ordered to report for registration and placement
+6. Relevant Laws and Precedents:
+- Israel Prison Service regulations regarding community service</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -6030,24 +6076,23 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>1. Case Type:
-- Criminal appeal regarding judicial recusal
-2. Legal Issues:
-- Motion for judicial recusal
-- Conditions of bail release
+          <t>1. Case Number: M.I. 6904-03-20
+2. Case Type: Criminal
+3. Legal Issues:
+- Judicial recusal request
+- Modification of bail conditions
 - Question of judicial bias
-3. Summary of Facts:
-- Appellants were arrested for fraud, forgery, and money laundering offenses
+4. Summary of Facts:
+- Appellants were arrested for suspected fraud, forgery, and money laundering
 - Court ordered release on bail with conditions including 180-day restriction on certain activities
-- Appellants requested reconsideration of bail conditions
-- Lower court rejected the motion to modify bail conditions
-- Appellants filed for judicial recusal claiming the judge had pre-expressed opinions
-- Trial court rejected the recusal request
-4. Court Decision:
-- Appeal dismissed
-- Court found no real risk of bias
-- Confirmed that previous rulings do not constitute grounds for judicial disqualification
-5. Relevant Laws and Precedents:
+- Appellants requested removal of restrictive conditions
+- Lower court rejected modification request
+- Appellants filed for judicial recusal claiming judge expressed predetermined opinion
+- District Court accepted appeal for hearing
+- Trial judge rejected recusal request
+5. Court Decision:
+Appeal dismissed; no grounds found for judicial disqualification
+6. Relevant Laws and Precedents:
 - Criminal Procedure Law (Enforcement Powers) (Amendment No. 10), 1996, Section 57
 - Prohibition of Money Laundering Act, 5760-2000
 - Appeal 7250/19 Bachar v. The State of Israel
@@ -6089,20 +6134,20 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Case Type:
-- Civil Appeal Case
-Legal Issues:
-- Procedural matter regarding submission of additional legal citations during appeal
-- Two interconnected appeals (818/11 and 679/11)
-Summary of Facts:
-- Rachel Nadav is appellant in case 818/11 and respondent in 679/11
-- Heirs of Ovadia Balbul are respondents in 818/11 and appellants in 679/11
-- Ofira Dardikman is appellant in 679/11 and respondent in 818/11
+          <t>1. Case Number: 818/11 and counter-appeal 679/11
+2. Case Type: Civil
+3. Legal Issues:
+- Procedural matter regarding the submission of additional legal citations
+- Appeal and counter-appeal proceedings
+4. Summary of Facts:
+- Rachel Nadav is the appellant in case 818/11
+- The respondents are heirs of Ovadia Balbul
+- Ofira Dardikman is involved as appellant in 679/11
 - Appellant requested permission to submit new judgment as additional citation
 - Attorney Yehoshua Rosenzweig represented the appellant
-Court Decision:
-- Court denied appellant's request to submit additional legal citations
-- Court stated it would consider relevant precedent as needed in its ruling</t>
+5. Court Decision:
+- Request to submit additional legal citations denied
+- Court will consider relevant precedent as needed in its ruling</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
